--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G630"/>
+  <dimension ref="A1:G638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16359,6 +16359,220 @@
         <v>356.53</v>
       </c>
       <c r="G630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>361</v>
+      </c>
+      <c r="C631" t="n">
+        <v>354.98</v>
+      </c>
+      <c r="D631" t="n">
+        <v>347.0766666666667</v>
+      </c>
+      <c r="E631" t="n">
+        <v>338.43</v>
+      </c>
+      <c r="F631" t="n">
+        <v>338.03</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>371.56</v>
+      </c>
+      <c r="C632" t="n">
+        <v>371.24</v>
+      </c>
+      <c r="D632" t="n">
+        <v>350.2433333333333</v>
+      </c>
+      <c r="E632" t="n">
+        <v>349.7</v>
+      </c>
+      <c r="F632" t="n">
+        <v>347.78</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>378.52</v>
+      </c>
+      <c r="C633" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="D633" t="n">
+        <v>367.6966666666667</v>
+      </c>
+      <c r="E633" t="n">
+        <v>361.92</v>
+      </c>
+      <c r="F633" t="n">
+        <v>345.45</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>369.51</v>
+      </c>
+      <c r="C634" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="D634" t="n">
+        <v>362.57</v>
+      </c>
+      <c r="E634" t="n">
+        <v>352.84</v>
+      </c>
+      <c r="F634" t="n">
+        <v>343.4299999999999</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:31+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>370.87</v>
+      </c>
+      <c r="C635" t="n">
+        <v>370.95</v>
+      </c>
+      <c r="D635" t="n">
+        <v>365.09</v>
+      </c>
+      <c r="E635" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="F635" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:27+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>367.14</v>
+      </c>
+      <c r="C636" t="n">
+        <v>362.41</v>
+      </c>
+      <c r="D636" t="n">
+        <v>352.2033333333333</v>
+      </c>
+      <c r="E636" t="n">
+        <v>344.69</v>
+      </c>
+      <c r="F636" t="n">
+        <v>343.86</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>359.49</v>
+      </c>
+      <c r="C637" t="n">
+        <v>352.19</v>
+      </c>
+      <c r="D637" t="n">
+        <v>355.9433333333333</v>
+      </c>
+      <c r="E637" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="F637" t="n">
+        <v>343.81</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>378</v>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="n">
+        <v>376.5933333333333</v>
+      </c>
+      <c r="E638" t="n">
+        <v>365.51</v>
+      </c>
+      <c r="F638" t="n">
+        <v>371.42</v>
+      </c>
+      <c r="G638" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16375,7 +16589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23283,6 +23497,86 @@
       </c>
       <c r="B690" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -23451,28 +23745,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6004418551293795</v>
+        <v>-0.5658057860679664</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K2" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05719887036083915</v>
+        <v>0.05223694092419429</v>
       </c>
       <c r="M2" t="n">
-        <v>13.77724957902843</v>
+        <v>13.73312369996415</v>
       </c>
       <c r="N2" t="n">
-        <v>321.6280678029541</v>
+        <v>319.5388960069924</v>
       </c>
       <c r="O2" t="n">
-        <v>17.93399196506327</v>
+        <v>17.87565092540667</v>
       </c>
       <c r="P2" t="n">
-        <v>372.6737435265425</v>
+        <v>372.3416541839636</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23528,28 +23822,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6570195551832689</v>
+        <v>-0.6313011468138376</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06983363769600237</v>
+        <v>0.06608522531524741</v>
       </c>
       <c r="M3" t="n">
-        <v>13.76908018389508</v>
+        <v>13.72306094758944</v>
       </c>
       <c r="N3" t="n">
-        <v>309.6092461945559</v>
+        <v>307.6110280163937</v>
       </c>
       <c r="O3" t="n">
-        <v>17.5957167002244</v>
+        <v>17.53884340589179</v>
       </c>
       <c r="P3" t="n">
-        <v>373.2886985161422</v>
+        <v>373.0383211411103</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23605,28 +23899,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6907336754355653</v>
+        <v>-0.6666335273616599</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K4" t="n">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08182646590077014</v>
+        <v>0.07828833808911295</v>
       </c>
       <c r="M4" t="n">
-        <v>12.98048595533325</v>
+        <v>12.921224666114</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5415584572754</v>
+        <v>283.4387454621407</v>
       </c>
       <c r="O4" t="n">
-        <v>16.89797498096371</v>
+        <v>16.83563914623204</v>
       </c>
       <c r="P4" t="n">
-        <v>369.1063778842359</v>
+        <v>368.8688093443179</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23682,28 +23976,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5445616171646215</v>
+        <v>-0.5375899337584353</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K5" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05014748872365049</v>
+        <v>0.05017014011695387</v>
       </c>
       <c r="M5" t="n">
-        <v>13.82384927861144</v>
+        <v>13.71612980429971</v>
       </c>
       <c r="N5" t="n">
-        <v>304.1304774404222</v>
+        <v>300.6983761241496</v>
       </c>
       <c r="O5" t="n">
-        <v>17.43933706998125</v>
+        <v>17.34065673854798</v>
       </c>
       <c r="P5" t="n">
-        <v>363.3976313321158</v>
+        <v>363.3295698521488</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23759,28 +24053,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4311358505652016</v>
+        <v>-0.427053900564087</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K6" t="n">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03240876126561809</v>
+        <v>0.03258381693015522</v>
       </c>
       <c r="M6" t="n">
-        <v>13.6416148062562</v>
+        <v>13.53651222026473</v>
       </c>
       <c r="N6" t="n">
-        <v>298.614865255774</v>
+        <v>295.679771714724</v>
       </c>
       <c r="O6" t="n">
-        <v>17.28047641865739</v>
+        <v>17.19534157016731</v>
       </c>
       <c r="P6" t="n">
-        <v>357.7094339462432</v>
+        <v>357.6690803346347</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23817,7 +24111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G630"/>
+  <dimension ref="A1:G638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44951,6 +45245,298 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-40.92653889463441,176.1864018154468</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-40.92688618517763,176.18562478081316</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-40.927219860718125,176.18483442820613</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-40.92754816075387,176.18403881928737</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-40.92793606346857,176.18330152712232</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-40.92661521910817,176.18647649157973</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-40.9270037080555,176.18573976489967</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-40.92724274864945,176.18485682148864</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-40.92762961807545,176.18411851564693</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-40.92800653484291,176.18337047464595</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-40.926665523844534,176.1865257100356</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-40.92705488033749,176.1857898319007</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-40.92736889720004,176.18498024411505</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-40.92771794173674,176.18420493020304</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-40.927989693995706,176.18335399794213</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-40.926600402334934,176.18646199477888</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-40.927017946673196,176.1857536959641</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-40.92733184288601,176.18494399043695</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-40.927652313360504,176.18414072034685</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-40.927975093774066,176.18333971342472</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:31+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-40.92661023199937,176.18647161216796</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-40.92700161201516,176.18573771413438</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-40.927350056841746,176.18496181083535</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-40.92765173513674,176.18414015462184</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-40.928037180841166,176.18340045802577</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24 21:54:27+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-40.92658327269694,176.186445235071</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-40.92693988722244,176.1856773226906</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-40.927256915071794,176.1848706817598</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-40.92759340679835,176.18408308716084</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-40.92797820174219,176.18334275418778</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-40.92652798080832,176.18639113733977</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-40.9268660197997,176.185605051113</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-40.927283946913185,176.18489712943676</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-40.92763590626002,176.184124667903</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-40.927977840350565,176.18334240061066</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-40.92666176544553,176.186522032792</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-40.927433200136505,176.1850431577803</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-40.9277438895085,176.18423031717518</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-40.928177400624435,176.18353764649075</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -23590,7 +23590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23681,35 +23681,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23768,27 +23773,28 @@
       <c r="P2" t="n">
         <v>372.3416541839636</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.1838490716327 -40.92392966278138, 176.190227117664 -40.93044833226085)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.1838490716327</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.92392966278138</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.190227117664</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.93044833226085</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.1870380946484</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.92718899752111</v>
       </c>
     </row>
@@ -23845,27 +23851,28 @@
       <c r="P3" t="n">
         <v>373.0383211411103</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.1831146102813 -40.924320452969155, 176.18949263744392 -40.930839137389064)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.1831146102813</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.92432045296916</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.1894926374439</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.93083913738906</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.1863036238626</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.92757979517911</v>
       </c>
     </row>
@@ -23922,27 +23929,28 @@
       <c r="P4" t="n">
         <v>368.8688093443179</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.18238014893052 -40.92471124084593, 176.18875815722265 -40.93122994020605)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.1823801489305</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.92471124084593</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.1887581572227</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.93122994020605</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.1855691530766</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.92797059052599</v>
       </c>
     </row>
@@ -23999,27 +24007,28 @@
       <c r="P5" t="n">
         <v>363.3295698521488</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.1816456875802 -40.92510202641176, 176.18802367700033 -40.93162074071169)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.1816456875802</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.92510202641176</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.1880236770003</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.93162074071169</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.1848346822903</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.92836138356172</v>
       </c>
     </row>
@@ -24076,27 +24085,28 @@
       <c r="P6" t="n">
         <v>357.6690803346347</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.18091122623042 -40.92549280966664, 176.18728919677687 -40.93201153890608)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.1809112262304</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.92549280966664</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.1872891967769</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.93201153890608</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.1841002115036</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.92875217428636</v>
       </c>
     </row>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G638"/>
+  <dimension ref="A1:G641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16573,6 +16573,87 @@
         <v>371.42</v>
       </c>
       <c r="G638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:40+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="C639" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="D639" t="n">
+        <v>348.21</v>
+      </c>
+      <c r="E639" t="n">
+        <v>347.01</v>
+      </c>
+      <c r="F639" t="n">
+        <v>345.29</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>372.01</v>
+      </c>
+      <c r="C640" t="n">
+        <v>379.19</v>
+      </c>
+      <c r="D640" t="n">
+        <v>381.7833333333333</v>
+      </c>
+      <c r="E640" t="n">
+        <v>375.87</v>
+      </c>
+      <c r="F640" t="n">
+        <v>368.27</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="C641" t="n">
+        <v>369.96</v>
+      </c>
+      <c r="D641" t="n">
+        <v>365.02</v>
+      </c>
+      <c r="E641" t="n">
+        <v>357.74</v>
+      </c>
+      <c r="F641" t="n">
+        <v>357.12</v>
+      </c>
+      <c r="G641" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16589,7 +16670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B698"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23577,6 +23658,36 @@
       </c>
       <c r="B698" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -23750,28 +23861,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5658057860679664</v>
+        <v>-0.5570764952459739</v>
       </c>
       <c r="J2" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05223694092419429</v>
+        <v>0.05121232932643194</v>
       </c>
       <c r="M2" t="n">
-        <v>13.73312369996415</v>
+        <v>13.69720700630369</v>
       </c>
       <c r="N2" t="n">
-        <v>319.5388960069924</v>
+        <v>318.2532582604748</v>
       </c>
       <c r="O2" t="n">
-        <v>17.87565092540667</v>
+        <v>17.83965409587514</v>
       </c>
       <c r="P2" t="n">
-        <v>372.3416541839636</v>
+        <v>372.2569841928719</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23828,28 +23939,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6313011468138376</v>
+        <v>-0.6205218765398521</v>
       </c>
       <c r="J3" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06608522531524741</v>
+        <v>0.06444367681272478</v>
       </c>
       <c r="M3" t="n">
-        <v>13.72306094758944</v>
+        <v>13.72295154813332</v>
       </c>
       <c r="N3" t="n">
-        <v>307.6110280163937</v>
+        <v>307.2066893107901</v>
       </c>
       <c r="O3" t="n">
-        <v>17.53884340589179</v>
+        <v>17.5273126665439</v>
       </c>
       <c r="P3" t="n">
-        <v>373.0383211411103</v>
+        <v>372.9317346565694</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23906,28 +24017,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6666335273616599</v>
+        <v>-0.6518779055523618</v>
       </c>
       <c r="J4" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07828833808911295</v>
+        <v>0.07542101841433158</v>
       </c>
       <c r="M4" t="n">
-        <v>12.921224666114</v>
+        <v>12.93553529346534</v>
       </c>
       <c r="N4" t="n">
-        <v>283.4387454621407</v>
+        <v>283.8819019542948</v>
       </c>
       <c r="O4" t="n">
-        <v>16.83563914623204</v>
+        <v>16.84879526714877</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8688093443179</v>
+        <v>368.721884976229</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23984,28 +24095,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5375899337584353</v>
+        <v>-0.5263924030066893</v>
       </c>
       <c r="J5" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K5" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05017014011695387</v>
+        <v>0.04850220783366099</v>
       </c>
       <c r="M5" t="n">
-        <v>13.71612980429971</v>
+        <v>13.71022382389016</v>
       </c>
       <c r="N5" t="n">
-        <v>300.6983761241496</v>
+        <v>300.4371510670084</v>
       </c>
       <c r="O5" t="n">
-        <v>17.34065673854798</v>
+        <v>17.33312294616895</v>
       </c>
       <c r="P5" t="n">
-        <v>363.3295698521488</v>
+        <v>363.2195551730637</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24062,28 +24173,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.427053900564087</v>
+        <v>-0.4166270859174281</v>
       </c>
       <c r="J6" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K6" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03258381693015522</v>
+        <v>0.03128795291402908</v>
       </c>
       <c r="M6" t="n">
-        <v>13.53651222026473</v>
+        <v>13.52369670637295</v>
       </c>
       <c r="N6" t="n">
-        <v>295.679771714724</v>
+        <v>295.114788804597</v>
       </c>
       <c r="O6" t="n">
-        <v>17.19534157016731</v>
+        <v>17.17890534360665</v>
       </c>
       <c r="P6" t="n">
-        <v>357.6690803346347</v>
+        <v>357.5664458180347</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24121,7 +24232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G638"/>
+  <dimension ref="A1:G641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45547,6 +45658,117 @@
         </is>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:40+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-40.926531956043135,176.18639502671607</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-40.926844553425404,176.18558404854235</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-40.92722805218885,176.18484244264226</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-40.927610175295484,176.18409949316148</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-40.92798853754258,176.18335286649497</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-40.92661847157029,176.18647967380517</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-40.92706116845516,176.18579598420712</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-40.927470712172244,176.18507985943998</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-40.9278187693932,176.18430357885703</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-40.92815463299198,176.183515371004</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:43+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-40.92657329847606,176.18643547625783</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-40.92699445656682,176.18573071324687</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-40.927349550898576,176.18496131582415</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-40.92768772955983,176.1841753710241</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-40.928074042761146,176.18343652297747</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G641"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16654,6 +16654,114 @@
         <v>357.12</v>
       </c>
       <c r="G641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>377.65</v>
+      </c>
+      <c r="C642" t="n">
+        <v>369.22</v>
+      </c>
+      <c r="D642" t="n">
+        <v>363.5266666666667</v>
+      </c>
+      <c r="E642" t="n">
+        <v>356.38</v>
+      </c>
+      <c r="F642" t="n">
+        <v>352.17</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>370.03</v>
+      </c>
+      <c r="C643" t="n">
+        <v>365.27</v>
+      </c>
+      <c r="D643" t="n">
+        <v>360.62</v>
+      </c>
+      <c r="E643" t="n">
+        <v>354.48</v>
+      </c>
+      <c r="F643" t="n">
+        <v>347.36</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>372.34</v>
+      </c>
+      <c r="C644" t="n">
+        <v>366.97</v>
+      </c>
+      <c r="D644" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="E644" t="n">
+        <v>356</v>
+      </c>
+      <c r="F644" t="n">
+        <v>351.95</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>371.91</v>
+      </c>
+      <c r="C645" t="n">
+        <v>380.15</v>
+      </c>
+      <c r="D645" t="n">
+        <v>384.7666666666667</v>
+      </c>
+      <c r="E645" t="n">
+        <v>370.05</v>
+      </c>
+      <c r="F645" t="n">
+        <v>359.78</v>
+      </c>
+      <c r="G645" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16670,7 +16778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B701"/>
+  <dimension ref="A1:B705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23688,6 +23796,46 @@
       </c>
       <c r="B701" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -23861,28 +24009,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5570764952459739</v>
+        <v>-0.5356236763283311</v>
       </c>
       <c r="J2" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K2" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05121232932643194</v>
+        <v>0.04799670253415067</v>
       </c>
       <c r="M2" t="n">
-        <v>13.69720700630369</v>
+        <v>13.69487011299584</v>
       </c>
       <c r="N2" t="n">
-        <v>318.2532582604748</v>
+        <v>317.601906814274</v>
       </c>
       <c r="O2" t="n">
-        <v>17.83965409587514</v>
+        <v>17.82138902595064</v>
       </c>
       <c r="P2" t="n">
-        <v>372.2569841928719</v>
+        <v>372.0476403657517</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23939,28 +24087,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6205218765398521</v>
+        <v>-0.5999151592648742</v>
       </c>
       <c r="J3" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06444367681272478</v>
+        <v>0.06110954514613876</v>
       </c>
       <c r="M3" t="n">
-        <v>13.72295154813332</v>
+        <v>13.71203009795807</v>
       </c>
       <c r="N3" t="n">
-        <v>307.2066893107901</v>
+        <v>306.4224469070708</v>
       </c>
       <c r="O3" t="n">
-        <v>17.5273126665439</v>
+        <v>17.50492636108678</v>
       </c>
       <c r="P3" t="n">
-        <v>372.9317346565694</v>
+        <v>372.7268323438188</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24017,28 +24165,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6518779055523618</v>
+        <v>-0.6288592284121388</v>
       </c>
       <c r="J4" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07542101841433158</v>
+        <v>0.07098113422048791</v>
       </c>
       <c r="M4" t="n">
-        <v>12.93553529346534</v>
+        <v>12.95366189134134</v>
       </c>
       <c r="N4" t="n">
-        <v>283.8819019542948</v>
+        <v>284.301720361517</v>
       </c>
       <c r="O4" t="n">
-        <v>16.84879526714877</v>
+        <v>16.86124907477252</v>
       </c>
       <c r="P4" t="n">
-        <v>368.721884976229</v>
+        <v>368.4912408126879</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24095,28 +24243,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5263924030066893</v>
+        <v>-0.5131172933864728</v>
       </c>
       <c r="J5" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K5" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04850220783366099</v>
+        <v>0.04671992835994387</v>
       </c>
       <c r="M5" t="n">
-        <v>13.71022382389016</v>
+        <v>13.68022688103249</v>
       </c>
       <c r="N5" t="n">
-        <v>300.4371510670084</v>
+        <v>299.185103819309</v>
       </c>
       <c r="O5" t="n">
-        <v>17.33312294616895</v>
+        <v>17.29696805279206</v>
       </c>
       <c r="P5" t="n">
-        <v>363.2195551730637</v>
+        <v>363.0882852714578</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24173,28 +24321,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4166270859174281</v>
+        <v>-0.4085325955209139</v>
       </c>
       <c r="J6" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="K6" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03128795291402908</v>
+        <v>0.03051083619355388</v>
       </c>
       <c r="M6" t="n">
-        <v>13.52369670637295</v>
+        <v>13.46951655430177</v>
       </c>
       <c r="N6" t="n">
-        <v>295.114788804597</v>
+        <v>293.4192665724896</v>
       </c>
       <c r="O6" t="n">
-        <v>17.17890534360665</v>
+        <v>17.12948529794429</v>
       </c>
       <c r="P6" t="n">
-        <v>357.5664458180347</v>
+        <v>357.4862656698543</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24232,7 +24380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G641"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45769,6 +45917,154 @@
         </is>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-40.9266592357538,176.18651955772444</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-40.92698910804955,176.18572548026123</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-40.92733875744365,176.18495075558704</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-40.92767789975877,176.1841657536895</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-40.92803826501547,176.18340151875904</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-40.92660416073614,176.18646567201554</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-40.9269605585271,176.18569754744712</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-40.927317748751406,176.18493020084978</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-40.92766416694691,176.1841523177122</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-40.92800349915392,176.1833675045957</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-40.92662085670913,176.18648200743738</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-40.926972845664295,176.18570956916156</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-40.9273230250174,176.18493536310478</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-40.92767515319654,176.1841630664936</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-40.92803667489316,176.1833999630169</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-40.926617748800936,176.18647896664396</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-40.92706810706731,176.1858027729604</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-40.92749227496129,176.18510095643109</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-40.927776703673054,176.18426242217723</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-40.928093268777,176.18345533334102</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G645"/>
+  <dimension ref="A1:G646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16762,6 +16762,25 @@
         <v>359.78</v>
       </c>
       <c r="G645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="G646" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16778,7 +16797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B705"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23836,6 +23855,16 @@
       </c>
       <c r="B705" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -24012,7 +24041,7 @@
         <v>-0.5356236763283311</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
         <v>544</v>
@@ -24090,7 +24119,7 @@
         <v>-0.5999151592648742</v>
       </c>
       <c r="J3" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
         <v>496</v>
@@ -24168,7 +24197,7 @@
         <v>-0.6288592284121388</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K4" t="n">
         <v>518</v>
@@ -24246,7 +24275,7 @@
         <v>-0.5131172933864728</v>
       </c>
       <c r="J5" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K5" t="n">
         <v>548</v>
@@ -24321,28 +24350,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4085325955209139</v>
+        <v>-0.4168043728283023</v>
       </c>
       <c r="J6" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K6" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03051083619355388</v>
+        <v>0.03172069729930582</v>
       </c>
       <c r="M6" t="n">
-        <v>13.46951655430177</v>
+        <v>13.48953436458294</v>
       </c>
       <c r="N6" t="n">
-        <v>293.4192665724896</v>
+        <v>293.9499861662088</v>
       </c>
       <c r="O6" t="n">
-        <v>17.12948529794429</v>
+        <v>17.14496970444126</v>
       </c>
       <c r="P6" t="n">
-        <v>357.4862656698543</v>
+        <v>357.5683420909852</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24380,7 +24409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G645"/>
+  <dimension ref="A1:G646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46065,6 +46094,27 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-40.92782381512,176.18319170639984</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16776,13 +16776,42 @@
       <c r="B646" t="inlineStr"/>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr"/>
+      <c r="E646" t="n">
+        <v>327</v>
+      </c>
       <c r="F646" t="n">
         <v>322.5</v>
       </c>
       <c r="G646" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="C647" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="D647" t="n">
+        <v>349.9233333333333</v>
+      </c>
+      <c r="E647" t="n">
+        <v>349.96</v>
+      </c>
+      <c r="F647" t="n">
+        <v>340.33</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16797,7 +16826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23865,6 +23894,16 @@
       </c>
       <c r="B706" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -24038,28 +24077,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5356236763283311</v>
+        <v>-0.5347082476236044</v>
       </c>
       <c r="J2" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K2" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04799670253415067</v>
+        <v>0.04801687075173444</v>
       </c>
       <c r="M2" t="n">
-        <v>13.69487011299584</v>
+        <v>13.67397744779364</v>
       </c>
       <c r="N2" t="n">
-        <v>317.601906814274</v>
+        <v>317.031144475542</v>
       </c>
       <c r="O2" t="n">
-        <v>17.82138902595064</v>
+        <v>17.8053684172932</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0476403657517</v>
+        <v>372.0386678022372</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24116,28 +24155,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5999151592648742</v>
+        <v>-0.5992680510726598</v>
       </c>
       <c r="J3" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06110954514613876</v>
+        <v>0.06121921535531183</v>
       </c>
       <c r="M3" t="n">
-        <v>13.71203009795807</v>
+        <v>13.68758655793431</v>
       </c>
       <c r="N3" t="n">
-        <v>306.4224469070708</v>
+        <v>305.8115808752677</v>
       </c>
       <c r="O3" t="n">
-        <v>17.50492636108678</v>
+        <v>17.48746925301851</v>
       </c>
       <c r="P3" t="n">
-        <v>372.7268323438188</v>
+        <v>372.7203708601269</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24194,28 +24233,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6288592284121388</v>
+        <v>-0.6297187517481293</v>
       </c>
       <c r="J4" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K4" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07098113422048791</v>
+        <v>0.07141771894116322</v>
       </c>
       <c r="M4" t="n">
-        <v>12.95366189134134</v>
+        <v>12.93316369577565</v>
       </c>
       <c r="N4" t="n">
-        <v>284.301720361517</v>
+        <v>283.7643199648537</v>
       </c>
       <c r="O4" t="n">
-        <v>16.86124907477252</v>
+        <v>16.84530557647601</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4912408126879</v>
+        <v>368.4998876770725</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24272,28 +24311,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5131172933864728</v>
+        <v>-0.5209542305101896</v>
       </c>
       <c r="J5" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K5" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04671992835994387</v>
+        <v>0.04828254657754238</v>
       </c>
       <c r="M5" t="n">
-        <v>13.68022688103249</v>
+        <v>13.67207092524191</v>
       </c>
       <c r="N5" t="n">
-        <v>299.185103819309</v>
+        <v>299.0423310020261</v>
       </c>
       <c r="O5" t="n">
-        <v>17.29696805279206</v>
+        <v>17.29284045499831</v>
       </c>
       <c r="P5" t="n">
-        <v>363.0882852714578</v>
+        <v>363.1659100398904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24350,28 +24389,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4168043728283023</v>
+        <v>-0.4189922379034781</v>
       </c>
       <c r="J6" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K6" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03172069729930582</v>
+        <v>0.03214860427416932</v>
       </c>
       <c r="M6" t="n">
-        <v>13.48953436458294</v>
+        <v>13.47732284758043</v>
       </c>
       <c r="N6" t="n">
-        <v>293.9499861662088</v>
+        <v>293.506666516523</v>
       </c>
       <c r="O6" t="n">
-        <v>17.14496970444126</v>
+        <v>17.13203626299346</v>
       </c>
       <c r="P6" t="n">
-        <v>357.5683420909852</v>
+        <v>357.5901006616406</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24409,7 +24448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46103,7 +46142,11 @@
       <c r="B646" t="inlineStr"/>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr"/>
-      <c r="E646" t="inlineStr"/>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-40.92746554691936,176.18395799168317</t>
+        </is>
+      </c>
       <c r="F646" t="inlineStr">
         <is>
           <t>-40.92782381512,176.18319170639984</t>
@@ -46112,6 +46155,43 @@
       <c r="G646" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:32+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-40.926537304540616,176.1864002596959</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-40.92691466244304,176.18565264284774</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-40.92724043576397,176.1848545585878</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-40.92763149730305,176.18412035425206</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-40.927952687489345,176.18331779165294</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G647"/>
+  <dimension ref="A1:G648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16812,6 +16812,33 @@
       <c r="G647" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="C648" t="n">
+        <v>357.41</v>
+      </c>
+      <c r="D648" t="n">
+        <v>355.2666666666667</v>
+      </c>
+      <c r="E648" t="n">
+        <v>350.23</v>
+      </c>
+      <c r="F648" t="n">
+        <v>341.46</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23904,6 +23931,16 @@
       </c>
       <c r="B707" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -24077,28 +24114,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5347082476236044</v>
+        <v>-0.5350607364821972</v>
       </c>
       <c r="J2" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04801687075173444</v>
+        <v>0.04825713950685773</v>
       </c>
       <c r="M2" t="n">
-        <v>13.67397744779364</v>
+        <v>13.65090746283574</v>
       </c>
       <c r="N2" t="n">
-        <v>317.031144475542</v>
+        <v>316.4522691697569</v>
       </c>
       <c r="O2" t="n">
-        <v>17.8053684172932</v>
+        <v>17.78910535045978</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0386678022372</v>
+        <v>372.0421367360363</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24155,28 +24192,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5992680510726598</v>
+        <v>-0.5991850865887077</v>
       </c>
       <c r="J3" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06121921535531183</v>
+        <v>0.06144038246380912</v>
       </c>
       <c r="M3" t="n">
-        <v>13.68758655793431</v>
+        <v>13.66050079476646</v>
       </c>
       <c r="N3" t="n">
-        <v>305.8115808752677</v>
+        <v>305.1975941952903</v>
       </c>
       <c r="O3" t="n">
-        <v>17.48746925301851</v>
+        <v>17.46990538598564</v>
       </c>
       <c r="P3" t="n">
-        <v>372.7203708601269</v>
+        <v>372.7195389927579</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24233,28 +24270,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6297187517481293</v>
+        <v>-0.6285788002608214</v>
       </c>
       <c r="J4" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07141771894116322</v>
+        <v>0.07143438678390268</v>
       </c>
       <c r="M4" t="n">
-        <v>12.93316369577565</v>
+        <v>12.91422016092582</v>
       </c>
       <c r="N4" t="n">
-        <v>283.7643199648537</v>
+        <v>283.2367759036386</v>
       </c>
       <c r="O4" t="n">
-        <v>16.84530557647601</v>
+        <v>16.82963980314607</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4998876770725</v>
+        <v>368.4883721664801</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24311,28 +24348,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5209542305101896</v>
+        <v>-0.5207595270035617</v>
       </c>
       <c r="J5" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K5" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04828254657754238</v>
+        <v>0.04841965801810022</v>
       </c>
       <c r="M5" t="n">
-        <v>13.67207092524191</v>
+        <v>13.64827543191488</v>
       </c>
       <c r="N5" t="n">
-        <v>299.0423310020261</v>
+        <v>298.5001727121826</v>
       </c>
       <c r="O5" t="n">
-        <v>17.29284045499831</v>
+        <v>17.27715754145289</v>
       </c>
       <c r="P5" t="n">
-        <v>363.1659100398904</v>
+        <v>363.1639688968073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24389,28 +24426,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4189922379034781</v>
+        <v>-0.4207790088218566</v>
       </c>
       <c r="J6" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K6" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03214860427416932</v>
+        <v>0.03252400187451543</v>
       </c>
       <c r="M6" t="n">
-        <v>13.47732284758043</v>
+        <v>13.46297552938551</v>
       </c>
       <c r="N6" t="n">
-        <v>293.506666516523</v>
+        <v>293.0402911918897</v>
       </c>
       <c r="O6" t="n">
-        <v>17.13203626299346</v>
+        <v>17.11841964644779</v>
       </c>
       <c r="P6" t="n">
-        <v>357.5901006616406</v>
+        <v>357.6079435972919</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24448,7 +24485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G647"/>
+  <dimension ref="A1:G648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46195,6 +46232,43 @@
         </is>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-40.92651142937455,176.18637494339623</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-40.92690374856812,176.1856419647555</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-40.92727905612601,176.18489234433852</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-40.92763344880863,176.1841222635729</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-40.92796085494207,176.18332578249058</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G648"/>
+  <dimension ref="A1:G649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16839,6 +16839,33 @@
       <c r="G648" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>334.79</v>
+      </c>
+      <c r="C649" t="n">
+        <v>338.46</v>
+      </c>
+      <c r="D649" t="n">
+        <v>338.1366666666667</v>
+      </c>
+      <c r="E649" t="n">
+        <v>335.86</v>
+      </c>
+      <c r="F649" t="n">
+        <v>322.85</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B708"/>
+  <dimension ref="A1:B709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23941,6 +23968,16 @@
       </c>
       <c r="B708" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -24114,28 +24151,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5350607364821972</v>
+        <v>-0.5433928776830032</v>
       </c>
       <c r="J2" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04825713950685773</v>
+        <v>0.04973324097123666</v>
       </c>
       <c r="M2" t="n">
-        <v>13.65090746283574</v>
+        <v>13.67281597066985</v>
       </c>
       <c r="N2" t="n">
-        <v>316.4522691697569</v>
+        <v>316.8671551024813</v>
       </c>
       <c r="O2" t="n">
-        <v>17.78910535045978</v>
+        <v>17.80076276743447</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0421367360363</v>
+        <v>372.1242206601861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24192,28 +24229,28 @@
         <v>0.0309</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5991850865887077</v>
+        <v>-0.6063593431171427</v>
       </c>
       <c r="J3" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K3" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06144038246380912</v>
+        <v>0.06293431931475679</v>
       </c>
       <c r="M3" t="n">
-        <v>13.66050079476646</v>
+        <v>13.67357648979059</v>
       </c>
       <c r="N3" t="n">
-        <v>305.1975941952903</v>
+        <v>305.2841711611938</v>
       </c>
       <c r="O3" t="n">
-        <v>17.46990538598564</v>
+        <v>17.47238309908508</v>
       </c>
       <c r="P3" t="n">
-        <v>372.7195389927579</v>
+        <v>372.7915505075911</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24270,28 +24307,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6285788002608214</v>
+        <v>-0.6337573285563887</v>
       </c>
       <c r="J4" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07143438678390268</v>
+        <v>0.07270514239959347</v>
       </c>
       <c r="M4" t="n">
-        <v>12.91422016092582</v>
+        <v>12.91637294503949</v>
       </c>
       <c r="N4" t="n">
-        <v>283.2367759036386</v>
+        <v>283.0699545124076</v>
       </c>
       <c r="O4" t="n">
-        <v>16.82963980314607</v>
+        <v>16.82468289485444</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4883721664801</v>
+        <v>368.5407398643852</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24348,28 +24385,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5207595270035617</v>
+        <v>-0.5255315397450777</v>
       </c>
       <c r="J5" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K5" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04841965801810022</v>
+        <v>0.04938754048789251</v>
       </c>
       <c r="M5" t="n">
-        <v>13.64827543191488</v>
+        <v>13.64842938562957</v>
       </c>
       <c r="N5" t="n">
-        <v>298.5001727121826</v>
+        <v>298.3025375441516</v>
       </c>
       <c r="O5" t="n">
-        <v>17.27715754145289</v>
+        <v>17.27143704340063</v>
       </c>
       <c r="P5" t="n">
-        <v>363.1639688968073</v>
+        <v>363.2115955648349</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24426,28 +24463,28 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4207790088218566</v>
+        <v>-0.4288299288780509</v>
       </c>
       <c r="J6" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K6" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03252400187451543</v>
+        <v>0.03374659251371104</v>
       </c>
       <c r="M6" t="n">
-        <v>13.46297552938551</v>
+        <v>13.48112916604788</v>
       </c>
       <c r="N6" t="n">
-        <v>293.0402911918897</v>
+        <v>293.5176697978924</v>
       </c>
       <c r="O6" t="n">
-        <v>17.11841964644779</v>
+        <v>17.13235739172787</v>
       </c>
       <c r="P6" t="n">
-        <v>357.6079435972919</v>
+        <v>357.6884260101746</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24485,7 +24522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G648"/>
+  <dimension ref="A1:G649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46269,6 +46306,43 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:32+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-40.9263494564719,176.1862164694739</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-40.92676678295503,176.18550795853685</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-40.927155244447135,176.18477120851853</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-40.92752958529544,176.18402064543378</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-40.92782634486517,176.18319418142806</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G649"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16866,6 +16866,29 @@
       <c r="G649" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>373.84</v>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="n">
+        <v>376.5366666666667</v>
+      </c>
+      <c r="E650" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -16880,7 +16903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B709"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23978,6 +24001,16 @@
       </c>
       <c r="B709" t="n">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-09-29 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -24522,7 +24555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G649"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46343,6 +46376,35 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:55:08+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-40.926631698248606,176.18649261485862</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-40.92743279056379,176.18504275705595</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-40.92780828910368,176.1842933250401</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -24184,28 +24184,28 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5433928776830032</v>
+        <v>-0.5376663899751482</v>
       </c>
       <c r="J2" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04973324097123666</v>
+        <v>0.04886045367485692</v>
       </c>
       <c r="M2" t="n">
-        <v>13.67281597066985</v>
+        <v>13.67385653932335</v>
       </c>
       <c r="N2" t="n">
-        <v>316.8671551024813</v>
+        <v>316.7477347161726</v>
       </c>
       <c r="O2" t="n">
-        <v>17.80076276743447</v>
+        <v>17.79740808983636</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1242206601861</v>
+        <v>372.0673365127274</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24265,7 +24265,7 @@
         <v>-0.6063593431171427</v>
       </c>
       <c r="J3" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K3" t="n">
         <v>499</v>
@@ -24340,28 +24340,28 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6337573285563887</v>
+        <v>-0.6246160405415613</v>
       </c>
       <c r="J4" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K4" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07270514239959347</v>
+        <v>0.07076855462297915</v>
       </c>
       <c r="M4" t="n">
-        <v>12.91637294503949</v>
+        <v>12.93855370542198</v>
       </c>
       <c r="N4" t="n">
-        <v>283.0699545124076</v>
+        <v>283.6747018663272</v>
       </c>
       <c r="O4" t="n">
-        <v>16.82468289485444</v>
+        <v>16.84264533457637</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5407398643852</v>
+        <v>368.4475134131593</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24418,28 +24418,28 @@
         <v>0.0267</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5255315397450777</v>
+        <v>-0.5168173988438151</v>
       </c>
       <c r="J5" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K5" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04938754048789251</v>
+        <v>0.04784405602328978</v>
       </c>
       <c r="M5" t="n">
-        <v>13.64842938562957</v>
+        <v>13.66880056276518</v>
       </c>
       <c r="N5" t="n">
-        <v>298.3025375441516</v>
+        <v>298.8806035300336</v>
       </c>
       <c r="O5" t="n">
-        <v>17.27143704340063</v>
+        <v>17.28816368299518</v>
       </c>
       <c r="P5" t="n">
-        <v>363.2115955648349</v>
+        <v>363.1238786629822</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24499,7 +24499,7 @@
         <v>-0.4288299288780509</v>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K6" t="n">
         <v>571</v>

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -486,7 +486,7 @@
         <v>370.78</v>
       </c>
       <c r="D2" t="n">
-        <v>375.1933333333333</v>
+        <v>375.19</v>
       </c>
       <c r="E2" t="n">
         <v>373.8</v>
@@ -540,7 +540,7 @@
         <v>377.63</v>
       </c>
       <c r="D4" t="n">
-        <v>366.5833333333333</v>
+        <v>366.58</v>
       </c>
       <c r="E4" t="n">
         <v>363.83</v>
@@ -567,7 +567,7 @@
         <v>398.97</v>
       </c>
       <c r="D5" t="n">
-        <v>375.7033333333333</v>
+        <v>375.7</v>
       </c>
       <c r="E5" t="n">
         <v>357.93</v>
@@ -594,7 +594,7 @@
         <v>381.21</v>
       </c>
       <c r="D6" t="n">
-        <v>376.2733333333333</v>
+        <v>376.27</v>
       </c>
       <c r="E6" t="n">
         <v>370.99</v>
@@ -621,7 +621,7 @@
         <v>375.22</v>
       </c>
       <c r="D7" t="n">
-        <v>369.0566666666667</v>
+        <v>369.06</v>
       </c>
       <c r="E7" t="n">
         <v>370.22</v>
@@ -648,13 +648,13 @@
         <v>395.48</v>
       </c>
       <c r="D8" t="n">
-        <v>393.4766666666667</v>
+        <v>393.48</v>
       </c>
       <c r="E8" t="n">
         <v>365.71</v>
       </c>
       <c r="F8" t="n">
-        <v>377.7600000000001</v>
+        <v>377.76</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -775,10 +775,10 @@
         <v>364.42</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7233333333333</v>
+        <v>363.72</v>
       </c>
       <c r="E13" t="n">
-        <v>365.2600000000001</v>
+        <v>365.26</v>
       </c>
       <c r="F13" t="n">
         <v>364.66</v>
@@ -805,7 +805,7 @@
         <v>363.98</v>
       </c>
       <c r="E14" t="n">
-        <v>357.5700000000001</v>
+        <v>357.57</v>
       </c>
       <c r="F14" t="n">
         <v>357.81</v>
@@ -888,7 +888,7 @@
         <v>378.83</v>
       </c>
       <c r="D18" t="n">
-        <v>366.5033333333333</v>
+        <v>366.5</v>
       </c>
       <c r="E18" t="n">
         <v>347.97</v>
@@ -915,7 +915,7 @@
         <v>366.85</v>
       </c>
       <c r="D19" t="n">
-        <v>355.4266666666667</v>
+        <v>355.43</v>
       </c>
       <c r="E19" t="n">
         <v>340.71</v>
@@ -969,7 +969,7 @@
         <v>384.25</v>
       </c>
       <c r="D21" t="n">
-        <v>379.1466666666667</v>
+        <v>379.15</v>
       </c>
       <c r="E21" t="n">
         <v>366.9</v>
@@ -1023,7 +1023,7 @@
         <v>376.22</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3333333333333</v>
+        <v>369.33</v>
       </c>
       <c r="E23" t="n">
         <v>363.69</v>
@@ -1050,7 +1050,7 @@
         <v>398.93</v>
       </c>
       <c r="D24" t="n">
-        <v>388.6833333333333</v>
+        <v>388.68</v>
       </c>
       <c r="E24" t="n">
         <v>386.67</v>
@@ -1211,7 +1211,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>374.5466666666667</v>
+        <v>374.55</v>
       </c>
       <c r="E31" t="n">
         <v>375.78</v>
@@ -1238,7 +1238,7 @@
         <v>385.1</v>
       </c>
       <c r="D32" t="n">
-        <v>374.8533333333333</v>
+        <v>374.85</v>
       </c>
       <c r="E32" t="n">
         <v>380.21</v>
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.0100000000001</v>
+        <v>391.01</v>
       </c>
       <c r="C34" t="n">
-        <v>394.0700000000001</v>
+        <v>394.07</v>
       </c>
       <c r="D34" t="n">
-        <v>389.8366666666667</v>
+        <v>389.84</v>
       </c>
       <c r="E34" t="n">
         <v>394.53</v>
@@ -1311,7 +1311,7 @@
         <v>384.66</v>
       </c>
       <c r="D35" t="n">
-        <v>385.1866666666667</v>
+        <v>385.19</v>
       </c>
       <c r="E35" t="n">
         <v>378.46</v>
@@ -1365,7 +1365,7 @@
         <v>386.96</v>
       </c>
       <c r="D37" t="n">
-        <v>374.5133333333333</v>
+        <v>374.51</v>
       </c>
       <c r="E37" t="n">
         <v>366.11</v>
@@ -1473,7 +1473,7 @@
         <v>376.65</v>
       </c>
       <c r="D41" t="n">
-        <v>363.3066666666667</v>
+        <v>363.31</v>
       </c>
       <c r="E41" t="n">
         <v>338.24</v>
@@ -1523,7 +1523,7 @@
         <v>361.74</v>
       </c>
       <c r="D43" t="n">
-        <v>360.0666666666667</v>
+        <v>360.07</v>
       </c>
       <c r="E43" t="n">
         <v>353.63</v>
@@ -1550,7 +1550,7 @@
         <v>366.7</v>
       </c>
       <c r="D44" t="n">
-        <v>357.9233333333333</v>
+        <v>357.92</v>
       </c>
       <c r="E44" t="n">
         <v>345.7</v>
@@ -1658,7 +1658,7 @@
         <v>369.4</v>
       </c>
       <c r="D48" t="n">
-        <v>360.6866666666667</v>
+        <v>360.69</v>
       </c>
       <c r="E48" t="n">
         <v>359.99</v>
@@ -1683,7 +1683,7 @@
         <v>350.64</v>
       </c>
       <c r="D49" t="n">
-        <v>359.6866666666667</v>
+        <v>359.69</v>
       </c>
       <c r="E49" t="n">
         <v>352.72</v>
@@ -1706,7 +1706,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>372.8766666666667</v>
+        <v>372.88</v>
       </c>
       <c r="E50" t="n">
         <v>376.99</v>
@@ -1754,7 +1754,7 @@
         <v>391.01</v>
       </c>
       <c r="D52" t="n">
-        <v>399.1733333333333</v>
+        <v>399.17</v>
       </c>
       <c r="E52" t="n">
         <v>391.17</v>
@@ -1808,7 +1808,7 @@
         <v>365.03</v>
       </c>
       <c r="D54" t="n">
-        <v>371.9633333333333</v>
+        <v>371.96</v>
       </c>
       <c r="E54" t="n">
         <v>368.48</v>
@@ -1835,7 +1835,7 @@
         <v>375.47</v>
       </c>
       <c r="D55" t="n">
-        <v>366.3633333333333</v>
+        <v>366.36</v>
       </c>
       <c r="E55" t="n">
         <v>361.34</v>
@@ -1889,7 +1889,7 @@
         <v>360.86</v>
       </c>
       <c r="D57" t="n">
-        <v>362.7066666666667</v>
+        <v>362.71</v>
       </c>
       <c r="E57" t="n">
         <v>347.6</v>
@@ -1916,7 +1916,7 @@
         <v>351.83</v>
       </c>
       <c r="D58" t="n">
-        <v>353.9166666666667</v>
+        <v>353.92</v>
       </c>
       <c r="E58" t="n">
         <v>347.67</v>
@@ -1966,7 +1966,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>369.9033333333333</v>
+        <v>369.9</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -2016,7 +2016,7 @@
         <v>372.55</v>
       </c>
       <c r="D62" t="n">
-        <v>371.3333333333333</v>
+        <v>371.33</v>
       </c>
       <c r="E62" t="n">
         <v>377.33</v>
@@ -2064,7 +2064,7 @@
         <v>365.1</v>
       </c>
       <c r="D64" t="n">
-        <v>364.5266666666667</v>
+        <v>364.53</v>
       </c>
       <c r="E64" t="n">
         <v>362.07</v>
@@ -2118,7 +2118,7 @@
         <v>387.73</v>
       </c>
       <c r="D66" t="n">
-        <v>384.4466666666667</v>
+        <v>384.45</v>
       </c>
       <c r="E66" t="n">
         <v>370.34</v>
@@ -2193,7 +2193,7 @@
         <v>383.71</v>
       </c>
       <c r="D69" t="n">
-        <v>371.9966666666666</v>
+        <v>372</v>
       </c>
       <c r="E69" t="n">
         <v>371.6</v>
@@ -2220,7 +2220,7 @@
         <v>361.18</v>
       </c>
       <c r="D70" t="n">
-        <v>355.8733333333333</v>
+        <v>355.87</v>
       </c>
       <c r="E70" t="n">
         <v>355.04</v>
@@ -2247,7 +2247,7 @@
         <v>361.92</v>
       </c>
       <c r="D71" t="n">
-        <v>373.6633333333333</v>
+        <v>373.66</v>
       </c>
       <c r="E71" t="n">
         <v>376.05</v>
@@ -2274,7 +2274,7 @@
         <v>363.18</v>
       </c>
       <c r="D72" t="n">
-        <v>365.0066666666667</v>
+        <v>365.01</v>
       </c>
       <c r="E72" t="n">
         <v>371.43</v>
@@ -2301,7 +2301,7 @@
         <v>339.05</v>
       </c>
       <c r="D73" t="n">
-        <v>343.0533333333333</v>
+        <v>343.05</v>
       </c>
       <c r="E73" t="n">
         <v>344.01</v>
@@ -2328,7 +2328,7 @@
         <v>343.73</v>
       </c>
       <c r="D74" t="n">
-        <v>349.2633333333333</v>
+        <v>349.26</v>
       </c>
       <c r="E74" t="n">
         <v>359.73</v>
@@ -2355,7 +2355,7 @@
         <v>371.24</v>
       </c>
       <c r="D75" t="n">
-        <v>361.5466666666667</v>
+        <v>361.55</v>
       </c>
       <c r="E75" t="n">
         <v>352.57</v>
@@ -2401,7 +2401,7 @@
         <v>376.89</v>
       </c>
       <c r="D77" t="n">
-        <v>368.2633333333333</v>
+        <v>368.26</v>
       </c>
       <c r="E77" t="n">
         <v>352.75</v>
@@ -2487,7 +2487,7 @@
         <v>359.94</v>
       </c>
       <c r="D81" t="n">
-        <v>360.1433333333333</v>
+        <v>360.14</v>
       </c>
       <c r="E81" t="n">
         <v>354.86</v>
@@ -2558,7 +2558,7 @@
         <v>377.09</v>
       </c>
       <c r="D84" t="n">
-        <v>365.9533333333333</v>
+        <v>365.95</v>
       </c>
       <c r="E84" t="n">
         <v>363.15</v>
@@ -2646,13 +2646,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>383.5100000000001</v>
+        <v>383.51</v>
       </c>
       <c r="C88" t="n">
         <v>379.38</v>
       </c>
       <c r="D88" t="n">
-        <v>375.9833333333333</v>
+        <v>375.98</v>
       </c>
       <c r="E88" t="n">
         <v>362.22</v>
@@ -2679,7 +2679,7 @@
         <v>383.88</v>
       </c>
       <c r="D89" t="n">
-        <v>368.1266666666667</v>
+        <v>368.13</v>
       </c>
       <c r="E89" t="n">
         <v>372.99</v>
@@ -2731,7 +2731,7 @@
         <v>367.17</v>
       </c>
       <c r="D91" t="n">
-        <v>357.9333333333333</v>
+        <v>357.93</v>
       </c>
       <c r="E91" t="n">
         <v>355.36</v>
@@ -2758,7 +2758,7 @@
         <v>375.26</v>
       </c>
       <c r="D92" t="n">
-        <v>355.6566666666667</v>
+        <v>355.66</v>
       </c>
       <c r="E92" t="n">
         <v>357.94</v>
@@ -2812,7 +2812,7 @@
         <v>396.55</v>
       </c>
       <c r="D94" t="n">
-        <v>388.6066666666667</v>
+        <v>388.61</v>
       </c>
       <c r="E94" t="n">
         <v>380.8</v>
@@ -2839,7 +2839,7 @@
         <v>371.59</v>
       </c>
       <c r="D95" t="n">
-        <v>361.2866666666667</v>
+        <v>361.29</v>
       </c>
       <c r="E95" t="n">
         <v>361.38</v>
@@ -2866,7 +2866,7 @@
         <v>379.68</v>
       </c>
       <c r="D96" t="n">
-        <v>384.5066666666667</v>
+        <v>384.51</v>
       </c>
       <c r="E96" t="n">
         <v>386.36</v>
@@ -2893,7 +2893,7 @@
         <v>374.97</v>
       </c>
       <c r="D97" t="n">
-        <v>374.8966666666667</v>
+        <v>374.9</v>
       </c>
       <c r="E97" t="n">
         <v>378.03</v>
@@ -2916,7 +2916,7 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>384.2033333333333</v>
+        <v>384.2</v>
       </c>
       <c r="E98" t="n">
         <v>385.2</v>
@@ -2943,7 +2943,7 @@
         <v>379.93</v>
       </c>
       <c r="D99" t="n">
-        <v>374.3666666666667</v>
+        <v>374.37</v>
       </c>
       <c r="E99" t="n">
         <v>368.6</v>
@@ -2970,7 +2970,7 @@
         <v>394.21</v>
       </c>
       <c r="D100" t="n">
-        <v>386.8833333333333</v>
+        <v>386.88</v>
       </c>
       <c r="E100" t="n">
         <v>382.44</v>
@@ -2997,7 +2997,7 @@
         <v>421.79</v>
       </c>
       <c r="D101" t="n">
-        <v>410.5233333333333</v>
+        <v>410.52</v>
       </c>
       <c r="E101" t="n">
         <v>398.61</v>
@@ -3076,7 +3076,7 @@
         <v>373.14</v>
       </c>
       <c r="D104" t="n">
-        <v>371.8866666666667</v>
+        <v>371.89</v>
       </c>
       <c r="E104" t="n">
         <v>366.44</v>
@@ -3100,7 +3100,7 @@
         <v>359.68</v>
       </c>
       <c r="C105" t="n">
-        <v>368.5100000000001</v>
+        <v>368.51</v>
       </c>
       <c r="D105" t="n">
         <v>359.96</v>
@@ -3109,7 +3109,7 @@
         <v>356.58</v>
       </c>
       <c r="F105" t="n">
-        <v>348.5700000000001</v>
+        <v>348.57</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>371.24</v>
       </c>
       <c r="D106" t="n">
-        <v>368.3866666666667</v>
+        <v>368.39</v>
       </c>
       <c r="E106" t="n">
         <v>360.1</v>
@@ -3178,7 +3178,7 @@
         <v>387.38</v>
       </c>
       <c r="D108" t="n">
-        <v>383.7166666666667</v>
+        <v>383.72</v>
       </c>
       <c r="E108" t="n">
         <v>379.04</v>
@@ -3205,7 +3205,7 @@
         <v>363.38</v>
       </c>
       <c r="D109" t="n">
-        <v>361.1266666666667</v>
+        <v>361.13</v>
       </c>
       <c r="E109" t="n">
         <v>354.32</v>
@@ -3232,7 +3232,7 @@
         <v>374.96</v>
       </c>
       <c r="D110" t="n">
-        <v>367.3233333333333</v>
+        <v>367.32</v>
       </c>
       <c r="E110" t="n">
         <v>363.4</v>
@@ -3326,7 +3326,7 @@
         <v>385.29</v>
       </c>
       <c r="D114" t="n">
-        <v>375.6733333333333</v>
+        <v>375.67</v>
       </c>
       <c r="E114" t="n">
         <v>370.79</v>
@@ -3353,7 +3353,7 @@
         <v>392.9</v>
       </c>
       <c r="D115" t="n">
-        <v>377.2366666666667</v>
+        <v>377.24</v>
       </c>
       <c r="E115" t="n">
         <v>371.3</v>
@@ -3386,7 +3386,7 @@
         <v>368.55</v>
       </c>
       <c r="F116" t="n">
-        <v>358.9299999999999</v>
+        <v>358.93</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>369.82</v>
       </c>
       <c r="D118" t="n">
-        <v>370.0433333333333</v>
+        <v>370.04</v>
       </c>
       <c r="E118" t="n">
         <v>365.03</v>
@@ -3486,7 +3486,7 @@
         <v>370.69</v>
       </c>
       <c r="D120" t="n">
-        <v>377.8933333333333</v>
+        <v>377.89</v>
       </c>
       <c r="E120" t="n">
         <v>374.49</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>349.2166666666667</v>
+        <v>349.22</v>
       </c>
       <c r="E121" t="n">
         <v>344.44</v>
@@ -3538,7 +3538,7 @@
         <v>368.17</v>
       </c>
       <c r="D122" t="n">
-        <v>358.5266666666667</v>
+        <v>358.53</v>
       </c>
       <c r="E122" t="n">
         <v>347.36</v>
@@ -3561,10 +3561,10 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>355.2266666666667</v>
+        <v>355.23</v>
       </c>
       <c r="E123" t="n">
-        <v>353.4299999999999</v>
+        <v>353.43</v>
       </c>
       <c r="F123" t="n">
         <v>357.48</v>
@@ -3588,7 +3588,7 @@
         <v>366.13</v>
       </c>
       <c r="D124" t="n">
-        <v>367.7633333333333</v>
+        <v>367.76</v>
       </c>
       <c r="E124" t="n">
         <v>356.01</v>
@@ -3611,7 +3611,7 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>357.6333333333333</v>
+        <v>357.63</v>
       </c>
       <c r="E125" t="n">
         <v>349.02</v>
@@ -3678,7 +3678,7 @@
         <v>366.86</v>
       </c>
       <c r="D128" t="n">
-        <v>369.6033333333333</v>
+        <v>369.6</v>
       </c>
       <c r="E128" t="n">
         <v>367.52</v>
@@ -3705,7 +3705,7 @@
         <v>398.42</v>
       </c>
       <c r="D129" t="n">
-        <v>389.5933333333333</v>
+        <v>389.59</v>
       </c>
       <c r="E129" t="n">
         <v>387.92</v>
@@ -3732,7 +3732,7 @@
         <v>385.77</v>
       </c>
       <c r="D130" t="n">
-        <v>388.3866666666667</v>
+        <v>388.39</v>
       </c>
       <c r="E130" t="n">
         <v>385.61</v>
@@ -3759,7 +3759,7 @@
         <v>366.12</v>
       </c>
       <c r="D131" t="n">
-        <v>367.9666666666667</v>
+        <v>367.97</v>
       </c>
       <c r="E131" t="n">
         <v>373.04</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
-        <v>344.1799999999999</v>
+        <v>344.18</v>
       </c>
       <c r="F132" t="n">
         <v>349.73</v>
@@ -3834,7 +3834,7 @@
         <v>364.5</v>
       </c>
       <c r="D134" t="n">
-        <v>360.2233333333333</v>
+        <v>360.22</v>
       </c>
       <c r="E134" t="n">
         <v>356.54</v>
@@ -3861,7 +3861,7 @@
         <v>374.94</v>
       </c>
       <c r="D135" t="n">
-        <v>365.0066666666667</v>
+        <v>365.01</v>
       </c>
       <c r="E135" t="n">
         <v>368.19</v>
@@ -3888,7 +3888,7 @@
         <v>371.62</v>
       </c>
       <c r="D136" t="n">
-        <v>361.9366666666667</v>
+        <v>361.94</v>
       </c>
       <c r="E136" t="n">
         <v>357.59</v>
@@ -3915,7 +3915,7 @@
         <v>357.36</v>
       </c>
       <c r="D137" t="n">
-        <v>355.2866666666667</v>
+        <v>355.29</v>
       </c>
       <c r="E137" t="n">
         <v>344.99</v>
@@ -3969,7 +3969,7 @@
         <v>351.12</v>
       </c>
       <c r="D139" t="n">
-        <v>356.7166666666667</v>
+        <v>356.72</v>
       </c>
       <c r="E139" t="n">
         <v>347.35</v>
@@ -4017,7 +4017,7 @@
         <v>346.14</v>
       </c>
       <c r="D141" t="n">
-        <v>345.6233333333333</v>
+        <v>345.62</v>
       </c>
       <c r="E141" t="n">
         <v>336.51</v>
@@ -4063,7 +4063,7 @@
         <v>361.5</v>
       </c>
       <c r="D143" t="n">
-        <v>368.8033333333333</v>
+        <v>368.8</v>
       </c>
       <c r="E143" t="n">
         <v>367.92</v>
@@ -4113,7 +4113,7 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>333.5166666666667</v>
+        <v>333.52</v>
       </c>
       <c r="E145" t="n">
         <v>343.6</v>
@@ -4194,7 +4194,7 @@
         <v>343.9</v>
       </c>
       <c r="D148" t="n">
-        <v>342.1933333333333</v>
+        <v>342.19</v>
       </c>
       <c r="E148" t="n">
         <v>328.06</v>
@@ -4248,7 +4248,7 @@
         <v>356.84</v>
       </c>
       <c r="D150" t="n">
-        <v>343.1833333333333</v>
+        <v>343.18</v>
       </c>
       <c r="E150" t="n">
         <v>345.49</v>
@@ -4275,7 +4275,7 @@
         <v>360.11</v>
       </c>
       <c r="D151" t="n">
-        <v>343.3166666666667</v>
+        <v>343.32</v>
       </c>
       <c r="E151" t="n">
         <v>350.33</v>
@@ -4300,7 +4300,7 @@
         <v>386.46</v>
       </c>
       <c r="D152" t="n">
-        <v>367.2733333333333</v>
+        <v>367.27</v>
       </c>
       <c r="E152" t="n">
         <v>369.24</v>
@@ -4325,7 +4325,7 @@
         <v>378.73</v>
       </c>
       <c r="D153" t="n">
-        <v>368.2233333333333</v>
+        <v>368.22</v>
       </c>
       <c r="E153" t="n">
         <v>356.01</v>
@@ -4352,7 +4352,7 @@
         <v>358.84</v>
       </c>
       <c r="D154" t="n">
-        <v>355.1566666666667</v>
+        <v>355.16</v>
       </c>
       <c r="E154" t="n">
         <v>342.44</v>
@@ -4398,7 +4398,7 @@
         <v>367.39</v>
       </c>
       <c r="D156" t="n">
-        <v>360.6266666666667</v>
+        <v>360.63</v>
       </c>
       <c r="E156" t="n">
         <v>358.71</v>
@@ -4452,7 +4452,7 @@
         <v>378.15</v>
       </c>
       <c r="D158" t="n">
-        <v>365.7433333333333</v>
+        <v>365.74</v>
       </c>
       <c r="E158" t="n">
         <v>364.25</v>
@@ -4533,7 +4533,7 @@
         <v>376.23</v>
       </c>
       <c r="D161" t="n">
-        <v>366.5733333333333</v>
+        <v>366.57</v>
       </c>
       <c r="E161" t="n">
         <v>364.38</v>
@@ -4625,7 +4625,7 @@
         <v>404.7</v>
       </c>
       <c r="D165" t="n">
-        <v>393.6933333333333</v>
+        <v>393.69</v>
       </c>
       <c r="E165" t="n">
         <v>390.87</v>
@@ -4706,7 +4706,7 @@
         <v>391.94</v>
       </c>
       <c r="D168" t="n">
-        <v>386.2866666666667</v>
+        <v>386.29</v>
       </c>
       <c r="E168" t="n">
         <v>388.77</v>
@@ -4733,7 +4733,7 @@
         <v>402.56</v>
       </c>
       <c r="D169" t="n">
-        <v>412.3133333333333</v>
+        <v>412.31</v>
       </c>
       <c r="E169" t="n">
         <v>404.38</v>
@@ -4827,7 +4827,7 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>373.7366666666667</v>
+        <v>373.74</v>
       </c>
       <c r="E173" t="n">
         <v>386.69</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>343.1333333333333</v>
+        <v>343.13</v>
       </c>
       <c r="E175" t="n">
         <v>357.99</v>
@@ -4900,7 +4900,7 @@
         <v>341.79</v>
       </c>
       <c r="D176" t="n">
-        <v>349.0133333333333</v>
+        <v>349.01</v>
       </c>
       <c r="E176" t="n">
         <v>354.92</v>
@@ -4925,7 +4925,7 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>344.1799999999999</v>
+        <v>344.18</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>360.78</v>
       </c>
       <c r="D179" t="n">
-        <v>363.8766666666667</v>
+        <v>363.88</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -4996,7 +4996,7 @@
         <v>382.38</v>
       </c>
       <c r="D180" t="n">
-        <v>390.3133333333333</v>
+        <v>390.31</v>
       </c>
       <c r="E180" t="n">
         <v>397.53</v>
@@ -5044,7 +5044,7 @@
         <v>363.28</v>
       </c>
       <c r="D182" t="n">
-        <v>368.7066666666667</v>
+        <v>368.71</v>
       </c>
       <c r="E182" t="n">
         <v>364.94</v>
@@ -5069,7 +5069,7 @@
         <v>353.28</v>
       </c>
       <c r="D183" t="n">
-        <v>351.2733333333333</v>
+        <v>351.27</v>
       </c>
       <c r="E183" t="n">
         <v>358.99</v>
@@ -5218,7 +5218,7 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>351.0433333333333</v>
+        <v>351.04</v>
       </c>
       <c r="E190" t="n">
         <v>359.2</v>
@@ -5268,7 +5268,7 @@
         <v>349.06</v>
       </c>
       <c r="D192" t="n">
-        <v>353.0033333333333</v>
+        <v>353</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
@@ -5505,7 +5505,7 @@
         <v>348.86</v>
       </c>
       <c r="D203" t="n">
-        <v>347.5133333333333</v>
+        <v>347.51</v>
       </c>
       <c r="E203" t="n">
         <v>338.96</v>
@@ -5553,7 +5553,7 @@
         <v>373.37</v>
       </c>
       <c r="D205" t="n">
-        <v>367.3966666666667</v>
+        <v>367.4</v>
       </c>
       <c r="E205" t="n">
         <v>351.03</v>
@@ -5574,13 +5574,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>368.8200000000001</v>
+        <v>368.82</v>
       </c>
       <c r="C206" t="n">
         <v>372.47</v>
       </c>
       <c r="D206" t="n">
-        <v>363.4866666666667</v>
+        <v>363.49</v>
       </c>
       <c r="E206" t="n">
         <v>363.27</v>
@@ -5605,7 +5605,7 @@
         <v>391.97</v>
       </c>
       <c r="D207" t="n">
-        <v>381.3533333333333</v>
+        <v>381.35</v>
       </c>
       <c r="E207" t="n">
         <v>370.94</v>
@@ -5632,7 +5632,7 @@
         <v>366.94</v>
       </c>
       <c r="D208" t="n">
-        <v>362.8266666666667</v>
+        <v>362.83</v>
       </c>
       <c r="E208" t="n">
         <v>354.21</v>
@@ -5659,7 +5659,7 @@
         <v>381.29</v>
       </c>
       <c r="D209" t="n">
-        <v>377.2033333333333</v>
+        <v>377.2</v>
       </c>
       <c r="E209" t="n">
         <v>360.64</v>
@@ -5686,7 +5686,7 @@
         <v>377.95</v>
       </c>
       <c r="D210" t="n">
-        <v>360.7666666666667</v>
+        <v>360.77</v>
       </c>
       <c r="E210" t="n">
         <v>351.8</v>
@@ -5826,7 +5826,7 @@
         <v>368.16</v>
       </c>
       <c r="D216" t="n">
-        <v>351.1266666666667</v>
+        <v>351.13</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
@@ -5849,7 +5849,7 @@
         <v>360.94</v>
       </c>
       <c r="D217" t="n">
-        <v>348.0366666666667</v>
+        <v>348.04</v>
       </c>
       <c r="E217" t="n">
         <v>341.01</v>
@@ -5876,7 +5876,7 @@
         <v>390.43</v>
       </c>
       <c r="D218" t="n">
-        <v>361.9133333333333</v>
+        <v>361.91</v>
       </c>
       <c r="E218" t="n">
         <v>359.61</v>
@@ -5924,7 +5924,7 @@
         <v>386.96</v>
       </c>
       <c r="D220" t="n">
-        <v>380.6966666666667</v>
+        <v>380.7</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
@@ -6049,7 +6049,7 @@
         <v>370.68</v>
       </c>
       <c r="D225" t="n">
-        <v>363.7266666666667</v>
+        <v>363.73</v>
       </c>
       <c r="E225" t="n">
         <v>354.39</v>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>320.6266666666667</v>
+        <v>320.63</v>
       </c>
       <c r="E226" t="n">
         <v>315.04</v>
@@ -6099,7 +6099,7 @@
         <v>354.6</v>
       </c>
       <c r="D227" t="n">
-        <v>345.7533333333333</v>
+        <v>345.75</v>
       </c>
       <c r="E227" t="n">
         <v>340.2</v>
@@ -6126,7 +6126,7 @@
         <v>347.69</v>
       </c>
       <c r="D228" t="n">
-        <v>346.2033333333333</v>
+        <v>346.2</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>342.8366666666667</v>
+        <v>342.84</v>
       </c>
       <c r="E229" t="n">
         <v>345.53</v>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>334.3066666666667</v>
+        <v>334.31</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
@@ -6218,7 +6218,7 @@
         <v>359.01</v>
       </c>
       <c r="D232" t="n">
-        <v>351.8966666666667</v>
+        <v>351.9</v>
       </c>
       <c r="E232" t="n">
         <v>345.15</v>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
-        <v>343.5366666666667</v>
+        <v>343.54</v>
       </c>
       <c r="E233" t="n">
         <v>330.56</v>
@@ -6270,7 +6270,7 @@
         <v>355.08</v>
       </c>
       <c r="D234" t="n">
-        <v>354.4766666666667</v>
+        <v>354.48</v>
       </c>
       <c r="E234" t="n">
         <v>345.59</v>
@@ -6381,7 +6381,7 @@
         <v>359.58</v>
       </c>
       <c r="D239" t="n">
-        <v>363.6733333333333</v>
+        <v>363.67</v>
       </c>
       <c r="E239" t="n">
         <v>367.83</v>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>350.4966666666667</v>
+        <v>350.5</v>
       </c>
       <c r="E240" t="n">
         <v>346.79</v>
@@ -6477,7 +6477,7 @@
         <v>354.93</v>
       </c>
       <c r="D243" t="n">
-        <v>345.2133333333333</v>
+        <v>345.21</v>
       </c>
       <c r="E243" t="n">
         <v>340.96</v>
@@ -6504,7 +6504,7 @@
         <v>370.72</v>
       </c>
       <c r="D244" t="n">
-        <v>362.9766666666667</v>
+        <v>362.98</v>
       </c>
       <c r="E244" t="n">
         <v>348.62</v>
@@ -6531,7 +6531,7 @@
         <v>328.52</v>
       </c>
       <c r="D245" t="n">
-        <v>335.0866666666667</v>
+        <v>335.09</v>
       </c>
       <c r="E245" t="n">
         <v>318.15</v>
@@ -6558,7 +6558,7 @@
         <v>331.72</v>
       </c>
       <c r="D246" t="n">
-        <v>341.2066666666667</v>
+        <v>341.21</v>
       </c>
       <c r="E246" t="n">
         <v>328.15</v>
@@ -6585,7 +6585,7 @@
         <v>353.84</v>
       </c>
       <c r="D247" t="n">
-        <v>347.5566666666667</v>
+        <v>347.56</v>
       </c>
       <c r="E247" t="n">
         <v>330.48</v>
@@ -6612,7 +6612,7 @@
         <v>371.23</v>
       </c>
       <c r="D248" t="n">
-        <v>356.5633333333333</v>
+        <v>356.56</v>
       </c>
       <c r="E248" t="n">
         <v>341.94</v>
@@ -6637,7 +6637,7 @@
         <v>322.75</v>
       </c>
       <c r="D249" t="n">
-        <v>303.6233333333333</v>
+        <v>303.62</v>
       </c>
       <c r="E249" t="n">
         <v>313.78</v>
@@ -6691,7 +6691,7 @@
         <v>347.51</v>
       </c>
       <c r="D251" t="n">
-        <v>340.1266666666667</v>
+        <v>340.13</v>
       </c>
       <c r="E251" t="n">
         <v>329.71</v>
@@ -6718,7 +6718,7 @@
         <v>357.39</v>
       </c>
       <c r="D252" t="n">
-        <v>348.8566666666667</v>
+        <v>348.86</v>
       </c>
       <c r="E252" t="n">
         <v>331.05</v>
@@ -6772,7 +6772,7 @@
         <v>347.54</v>
       </c>
       <c r="D254" t="n">
-        <v>359.2666666666667</v>
+        <v>359.27</v>
       </c>
       <c r="E254" t="n">
         <v>361.84</v>
@@ -6826,7 +6826,7 @@
         <v>367.54</v>
       </c>
       <c r="D256" t="n">
-        <v>367.6066666666667</v>
+        <v>367.61</v>
       </c>
       <c r="E256" t="n">
         <v>368.57</v>
@@ -6880,7 +6880,7 @@
         <v>368.24</v>
       </c>
       <c r="D258" t="n">
-        <v>372.9066666666667</v>
+        <v>372.91</v>
       </c>
       <c r="E258" t="n">
         <v>366.3</v>
@@ -6934,7 +6934,7 @@
         <v>376.53</v>
       </c>
       <c r="D260" t="n">
-        <v>369.6533333333333</v>
+        <v>369.65</v>
       </c>
       <c r="E260" t="n">
         <v>367.98</v>
@@ -6961,7 +6961,7 @@
         <v>349.99</v>
       </c>
       <c r="D261" t="n">
-        <v>344.9966666666667</v>
+        <v>345</v>
       </c>
       <c r="E261" t="n">
         <v>346.14</v>
@@ -7061,7 +7061,7 @@
         <v>381.14</v>
       </c>
       <c r="D265" t="n">
-        <v>382.7533333333333</v>
+        <v>382.75</v>
       </c>
       <c r="E265" t="n">
         <v>368.34</v>
@@ -7088,7 +7088,7 @@
         <v>379.01</v>
       </c>
       <c r="D266" t="n">
-        <v>382.8166666666667</v>
+        <v>382.82</v>
       </c>
       <c r="E266" t="n">
         <v>362.55</v>
@@ -7134,7 +7134,7 @@
         <v>332.09</v>
       </c>
       <c r="D268" t="n">
-        <v>329.0766666666667</v>
+        <v>329.08</v>
       </c>
       <c r="E268" t="n">
         <v>327.19</v>
@@ -7161,7 +7161,7 @@
         <v>366.72</v>
       </c>
       <c r="D269" t="n">
-        <v>355.0666666666667</v>
+        <v>355.07</v>
       </c>
       <c r="E269" t="n">
         <v>352.06</v>
@@ -7188,7 +7188,7 @@
         <v>347.45</v>
       </c>
       <c r="D270" t="n">
-        <v>343.4533333333333</v>
+        <v>343.45</v>
       </c>
       <c r="E270" t="n">
         <v>337.93</v>
@@ -7242,7 +7242,7 @@
         <v>334.45</v>
       </c>
       <c r="D272" t="n">
-        <v>345.8566666666667</v>
+        <v>345.86</v>
       </c>
       <c r="E272" t="n">
         <v>339.23</v>
@@ -7388,7 +7388,7 @@
         <v>337.93</v>
       </c>
       <c r="D278" t="n">
-        <v>328.3066666666667</v>
+        <v>328.31</v>
       </c>
       <c r="E278" t="n">
         <v>337.05</v>
@@ -7442,7 +7442,7 @@
         <v>337.24</v>
       </c>
       <c r="D280" t="n">
-        <v>333.8666666666667</v>
+        <v>333.87</v>
       </c>
       <c r="E280" t="n">
         <v>329.27</v>
@@ -7544,7 +7544,7 @@
         <v>355.35</v>
       </c>
       <c r="D284" t="n">
-        <v>354.4633333333333</v>
+        <v>354.46</v>
       </c>
       <c r="E284" t="n">
         <v>351.27</v>
@@ -7590,7 +7590,7 @@
         <v>323.81</v>
       </c>
       <c r="D286" t="n">
-        <v>325.2766666666667</v>
+        <v>325.28</v>
       </c>
       <c r="E286" t="n">
         <v>318.62</v>
@@ -7617,7 +7617,7 @@
         <v>338.55</v>
       </c>
       <c r="D287" t="n">
-        <v>334.3666666666667</v>
+        <v>334.37</v>
       </c>
       <c r="E287" t="n">
         <v>330.36</v>
@@ -7644,7 +7644,7 @@
         <v>349.19</v>
       </c>
       <c r="D288" t="n">
-        <v>340.7766666666667</v>
+        <v>340.78</v>
       </c>
       <c r="E288" t="n">
         <v>326.97</v>
@@ -7671,7 +7671,7 @@
         <v>367.24</v>
       </c>
       <c r="D289" t="n">
-        <v>356.0166666666667</v>
+        <v>356.02</v>
       </c>
       <c r="E289" t="n">
         <v>345.92</v>
@@ -7698,7 +7698,7 @@
         <v>350.19</v>
       </c>
       <c r="D290" t="n">
-        <v>341.7566666666667</v>
+        <v>341.76</v>
       </c>
       <c r="E290" t="n">
         <v>337.41</v>
@@ -7725,7 +7725,7 @@
         <v>353.69</v>
       </c>
       <c r="D291" t="n">
-        <v>344.2766666666667</v>
+        <v>344.28</v>
       </c>
       <c r="E291" t="n">
         <v>333.83</v>
@@ -7752,7 +7752,7 @@
         <v>357.01</v>
       </c>
       <c r="D292" t="n">
-        <v>347.5833333333333</v>
+        <v>347.58</v>
       </c>
       <c r="E292" t="n">
         <v>343.2</v>
@@ -7779,7 +7779,7 @@
         <v>362.77</v>
       </c>
       <c r="D293" t="n">
-        <v>350.2466666666667</v>
+        <v>350.25</v>
       </c>
       <c r="E293" t="n">
         <v>352.47</v>
@@ -7806,7 +7806,7 @@
         <v>382.19</v>
       </c>
       <c r="D294" t="n">
-        <v>371.2433333333333</v>
+        <v>371.24</v>
       </c>
       <c r="E294" t="n">
         <v>364.94</v>
@@ -7829,7 +7829,7 @@
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
-        <v>351.2333333333333</v>
+        <v>351.23</v>
       </c>
       <c r="E295" t="n">
         <v>359.39</v>
@@ -7856,7 +7856,7 @@
         <v>367.79</v>
       </c>
       <c r="D296" t="n">
-        <v>364.0433333333333</v>
+        <v>364.04</v>
       </c>
       <c r="E296" t="n">
         <v>354.93</v>
@@ -7883,7 +7883,7 @@
         <v>366.49</v>
       </c>
       <c r="D297" t="n">
-        <v>359.3266666666667</v>
+        <v>359.33</v>
       </c>
       <c r="E297" t="n">
         <v>362.66</v>
@@ -7910,7 +7910,7 @@
         <v>368.6</v>
       </c>
       <c r="D298" t="n">
-        <v>363.0933333333333</v>
+        <v>363.09</v>
       </c>
       <c r="E298" t="n">
         <v>362.24</v>
@@ -7956,7 +7956,7 @@
         <v>349.27</v>
       </c>
       <c r="D300" t="n">
-        <v>348.2666666666667</v>
+        <v>348.27</v>
       </c>
       <c r="E300" t="n">
         <v>337.98</v>
@@ -7983,7 +7983,7 @@
         <v>362.33</v>
       </c>
       <c r="D301" t="n">
-        <v>356.3733333333333</v>
+        <v>356.37</v>
       </c>
       <c r="E301" t="n">
         <v>347.62</v>
@@ -8010,7 +8010,7 @@
         <v>360.57</v>
       </c>
       <c r="D302" t="n">
-        <v>355.5933333333333</v>
+        <v>355.59</v>
       </c>
       <c r="E302" t="n">
         <v>347.37</v>
@@ -8037,7 +8037,7 @@
         <v>347.09</v>
       </c>
       <c r="D303" t="n">
-        <v>344.3366666666667</v>
+        <v>344.34</v>
       </c>
       <c r="E303" t="n">
         <v>339.71</v>
@@ -8064,7 +8064,7 @@
         <v>333.49</v>
       </c>
       <c r="D304" t="n">
-        <v>321.5633333333333</v>
+        <v>321.56</v>
       </c>
       <c r="E304" t="n">
         <v>330.95</v>
@@ -8168,7 +8168,7 @@
         <v>305.48</v>
       </c>
       <c r="D308" t="n">
-        <v>303.1266666666667</v>
+        <v>303.13</v>
       </c>
       <c r="E308" t="n">
         <v>289.61</v>
@@ -8191,7 +8191,7 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="n">
-        <v>311.9366666666667</v>
+        <v>311.94</v>
       </c>
       <c r="E309" t="n">
         <v>309.91</v>
@@ -8218,13 +8218,13 @@
         <v>329.33</v>
       </c>
       <c r="D310" t="n">
-        <v>315.3633333333333</v>
+        <v>315.36</v>
       </c>
       <c r="E310" t="n">
         <v>304.91</v>
       </c>
       <c r="F310" t="n">
-        <v>288.3200000000001</v>
+        <v>288.32</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>337.35</v>
       </c>
       <c r="D312" t="n">
-        <v>329.5766666666667</v>
+        <v>329.58</v>
       </c>
       <c r="E312" t="n">
         <v>327.9</v>
@@ -8287,7 +8287,7 @@
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>332.2166666666667</v>
+        <v>332.22</v>
       </c>
       <c r="E313" t="n">
         <v>332.03</v>
@@ -8314,7 +8314,7 @@
         <v>332.78</v>
       </c>
       <c r="D314" t="n">
-        <v>320.4366666666667</v>
+        <v>320.44</v>
       </c>
       <c r="E314" t="n">
         <v>305.35</v>
@@ -8383,7 +8383,7 @@
         <v>335.67</v>
       </c>
       <c r="D317" t="n">
-        <v>300.5133333333333</v>
+        <v>300.51</v>
       </c>
       <c r="E317" t="n">
         <v>318.29</v>
@@ -8410,7 +8410,7 @@
         <v>347.85</v>
       </c>
       <c r="D318" t="n">
-        <v>314.9733333333333</v>
+        <v>314.97</v>
       </c>
       <c r="E318" t="n">
         <v>327.74</v>
@@ -8437,7 +8437,7 @@
         <v>348.72</v>
       </c>
       <c r="D319" t="n">
-        <v>346.0233333333333</v>
+        <v>346.02</v>
       </c>
       <c r="E319" t="n">
         <v>340.68</v>
@@ -8518,7 +8518,7 @@
         <v>354.58</v>
       </c>
       <c r="D322" t="n">
-        <v>337.7966666666667</v>
+        <v>337.8</v>
       </c>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
         <v>358.81</v>
       </c>
       <c r="D323" t="n">
-        <v>347.1466666666667</v>
+        <v>347.15</v>
       </c>
       <c r="E323" t="n">
         <v>338.65</v>
@@ -8587,7 +8587,7 @@
         <v>342.44</v>
       </c>
       <c r="D325" t="n">
-        <v>351.1066666666667</v>
+        <v>351.11</v>
       </c>
       <c r="E325" t="n">
         <v>347.75</v>
@@ -8641,7 +8641,7 @@
         <v>363.96</v>
       </c>
       <c r="D327" t="n">
-        <v>364.7166666666667</v>
+        <v>364.72</v>
       </c>
       <c r="E327" t="n">
         <v>359.4</v>
@@ -8732,10 +8732,10 @@
         <v>379.64</v>
       </c>
       <c r="C331" t="n">
-        <v>380.7600000000001</v>
+        <v>380.76</v>
       </c>
       <c r="D331" t="n">
-        <v>377.2233333333333</v>
+        <v>377.22</v>
       </c>
       <c r="E331" t="n">
         <v>370.87</v>
@@ -8762,7 +8762,7 @@
         <v>380.47</v>
       </c>
       <c r="D332" t="n">
-        <v>375.8833333333333</v>
+        <v>375.88</v>
       </c>
       <c r="E332" t="n">
         <v>372.01</v>
@@ -8837,7 +8837,7 @@
         <v>364.4</v>
       </c>
       <c r="D335" t="n">
-        <v>355.5933333333333</v>
+        <v>355.59</v>
       </c>
       <c r="E335" t="n">
         <v>363.54</v>
@@ -8860,7 +8860,7 @@
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
-        <v>367.2633333333333</v>
+        <v>367.26</v>
       </c>
       <c r="E336" t="n">
         <v>362.1</v>
@@ -8903,13 +8903,13 @@
         <v>366.06</v>
       </c>
       <c r="C338" t="n">
-        <v>371.9500000000001</v>
+        <v>371.95</v>
       </c>
       <c r="D338" t="n">
-        <v>371.6633333333333</v>
+        <v>371.66</v>
       </c>
       <c r="E338" t="n">
-        <v>362.5100000000001</v>
+        <v>362.51</v>
       </c>
       <c r="F338" t="n">
         <v>353.03</v>
@@ -8933,7 +8933,7 @@
         <v>379.46</v>
       </c>
       <c r="D339" t="n">
-        <v>367.6933333333333</v>
+        <v>367.69</v>
       </c>
       <c r="E339" t="n">
         <v>366.92</v>
@@ -9033,7 +9033,7 @@
         <v>353.94</v>
       </c>
       <c r="D343" t="n">
-        <v>355.4133333333333</v>
+        <v>355.41</v>
       </c>
       <c r="E343" t="n">
         <v>352.51</v>
@@ -9087,7 +9087,7 @@
         <v>364.81</v>
       </c>
       <c r="D345" t="n">
-        <v>351.0733333333333</v>
+        <v>351.07</v>
       </c>
       <c r="E345" t="n">
         <v>353.18</v>
@@ -9141,7 +9141,7 @@
         <v>382.82</v>
       </c>
       <c r="D347" t="n">
-        <v>372.4166666666667</v>
+        <v>372.42</v>
       </c>
       <c r="E347" t="n">
         <v>364.49</v>
@@ -9241,7 +9241,7 @@
         <v>368.53</v>
       </c>
       <c r="D351" t="n">
-        <v>357.7166666666667</v>
+        <v>357.72</v>
       </c>
       <c r="E351" t="n">
         <v>366.85</v>
@@ -9268,7 +9268,7 @@
         <v>374.21</v>
       </c>
       <c r="D352" t="n">
-        <v>377.0133333333333</v>
+        <v>377.01</v>
       </c>
       <c r="E352" t="n">
         <v>372.42</v>
@@ -9295,7 +9295,7 @@
         <v>358.37</v>
       </c>
       <c r="D353" t="n">
-        <v>345.3033333333333</v>
+        <v>345.3</v>
       </c>
       <c r="E353" t="n">
         <v>346.58</v>
@@ -9447,7 +9447,7 @@
         <v>368.91</v>
       </c>
       <c r="D359" t="n">
-        <v>355.9733333333333</v>
+        <v>355.97</v>
       </c>
       <c r="E359" t="n">
         <v>358.42</v>
@@ -9524,7 +9524,7 @@
         <v>371.57</v>
       </c>
       <c r="D362" t="n">
-        <v>353.3133333333333</v>
+        <v>353.31</v>
       </c>
       <c r="E362" t="n">
         <v>363.9</v>
@@ -9551,13 +9551,13 @@
         <v>379.74</v>
       </c>
       <c r="D363" t="n">
-        <v>360.0833333333333</v>
+        <v>360.08</v>
       </c>
       <c r="E363" t="n">
         <v>372.47</v>
       </c>
       <c r="F363" t="n">
-        <v>363.3200000000001</v>
+        <v>363.32</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>367.63</v>
       </c>
       <c r="D364" t="n">
-        <v>360.7666666666667</v>
+        <v>360.77</v>
       </c>
       <c r="E364" t="n">
         <v>367.52</v>
@@ -9605,7 +9605,7 @@
         <v>341.67</v>
       </c>
       <c r="D365" t="n">
-        <v>339.6566666666667</v>
+        <v>339.66</v>
       </c>
       <c r="E365" t="n">
         <v>340.89</v>
@@ -9632,7 +9632,7 @@
         <v>386.6</v>
       </c>
       <c r="D366" t="n">
-        <v>377.9866666666667</v>
+        <v>377.99</v>
       </c>
       <c r="E366" t="n">
         <v>374.48</v>
@@ -9686,7 +9686,7 @@
         <v>359.91</v>
       </c>
       <c r="D368" t="n">
-        <v>360.7166666666667</v>
+        <v>360.72</v>
       </c>
       <c r="E368" t="n">
         <v>351.7</v>
@@ -9807,7 +9807,7 @@
         <v>371.5</v>
       </c>
       <c r="D373" t="n">
-        <v>361.6633333333333</v>
+        <v>361.66</v>
       </c>
       <c r="E373" t="n">
         <v>346.41</v>
@@ -9834,7 +9834,7 @@
         <v>365.03</v>
       </c>
       <c r="D374" t="n">
-        <v>353.6566666666667</v>
+        <v>353.66</v>
       </c>
       <c r="E374" t="n">
         <v>348.73</v>
@@ -9861,7 +9861,7 @@
         <v>328.49</v>
       </c>
       <c r="D375" t="n">
-        <v>294.5933333333333</v>
+        <v>294.59</v>
       </c>
       <c r="E375" t="n">
         <v>328.66</v>
@@ -9886,7 +9886,7 @@
         <v>327.75</v>
       </c>
       <c r="D376" t="n">
-        <v>329.6333333333333</v>
+        <v>329.63</v>
       </c>
       <c r="E376" t="n">
         <v>334.3</v>
@@ -10034,7 +10034,7 @@
         <v>366.39</v>
       </c>
       <c r="D382" t="n">
-        <v>356.0533333333333</v>
+        <v>356.05</v>
       </c>
       <c r="E382" t="n">
         <v>356.98</v>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
-        <v>335.5033333333333</v>
+        <v>335.5</v>
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
@@ -10082,7 +10082,7 @@
         <v>355.55</v>
       </c>
       <c r="D384" t="n">
-        <v>358.5833333333333</v>
+        <v>358.58</v>
       </c>
       <c r="E384" t="n">
         <v>358.57</v>
@@ -10109,7 +10109,7 @@
         <v>363.09</v>
       </c>
       <c r="D385" t="n">
-        <v>366.1233333333333</v>
+        <v>366.12</v>
       </c>
       <c r="E385" t="n">
         <v>372.01</v>
@@ -10132,7 +10132,7 @@
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="n">
-        <v>392.9866666666667</v>
+        <v>392.99</v>
       </c>
       <c r="E386" t="n">
         <v>380.74</v>
@@ -10159,7 +10159,7 @@
         <v>378.78</v>
       </c>
       <c r="D387" t="n">
-        <v>384.8233333333333</v>
+        <v>384.82</v>
       </c>
       <c r="E387" t="n">
         <v>375.74</v>
@@ -10186,7 +10186,7 @@
         <v>377.11</v>
       </c>
       <c r="D388" t="n">
-        <v>377.2533333333333</v>
+        <v>377.25</v>
       </c>
       <c r="E388" t="n">
         <v>380.87</v>
@@ -10213,7 +10213,7 @@
         <v>353.78</v>
       </c>
       <c r="D389" t="n">
-        <v>363.4533333333333</v>
+        <v>363.45</v>
       </c>
       <c r="E389" t="n">
         <v>366.36</v>
@@ -10342,7 +10342,7 @@
         <v>372.43</v>
       </c>
       <c r="D394" t="n">
-        <v>373.0533333333333</v>
+        <v>373.05</v>
       </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
@@ -10365,7 +10365,7 @@
         <v>342.75</v>
       </c>
       <c r="D395" t="n">
-        <v>362.9933333333333</v>
+        <v>362.99</v>
       </c>
       <c r="E395" t="n">
         <v>361.23</v>
@@ -10419,7 +10419,7 @@
         <v>368.63</v>
       </c>
       <c r="D397" t="n">
-        <v>366.6766666666667</v>
+        <v>366.68</v>
       </c>
       <c r="E397" t="n">
         <v>362.79</v>
@@ -10444,7 +10444,7 @@
         <v>364.29</v>
       </c>
       <c r="D398" t="n">
-        <v>361.0066666666667</v>
+        <v>361.01</v>
       </c>
       <c r="E398" t="n">
         <v>357.75</v>
@@ -10471,7 +10471,7 @@
         <v>333.82</v>
       </c>
       <c r="D399" t="n">
-        <v>343.7366666666667</v>
+        <v>343.74</v>
       </c>
       <c r="E399" t="n">
         <v>336.39</v>
@@ -10586,7 +10586,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>324.9299999999999</v>
+        <v>324.93</v>
       </c>
       <c r="C404" t="n">
         <v>334.65</v>
@@ -10619,7 +10619,7 @@
         <v>359.11</v>
       </c>
       <c r="D405" t="n">
-        <v>357.8133333333333</v>
+        <v>357.81</v>
       </c>
       <c r="E405" t="n">
         <v>350.18</v>
@@ -10646,7 +10646,7 @@
         <v>360.87</v>
       </c>
       <c r="D406" t="n">
-        <v>360.5933333333333</v>
+        <v>360.59</v>
       </c>
       <c r="E406" t="n">
         <v>344.03</v>
@@ -10803,7 +10803,7 @@
         <v>340.89</v>
       </c>
       <c r="D413" t="n">
-        <v>352.2933333333333</v>
+        <v>352.29</v>
       </c>
       <c r="E413" t="n">
         <v>342.28</v>
@@ -10866,7 +10866,7 @@
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="n">
-        <v>353.3333333333333</v>
+        <v>353.33</v>
       </c>
       <c r="E416" t="n">
         <v>362.39</v>
@@ -10916,7 +10916,7 @@
         <v>374.43</v>
       </c>
       <c r="D418" t="n">
-        <v>367.8233333333333</v>
+        <v>367.82</v>
       </c>
       <c r="E418" t="n">
         <v>355.18</v>
@@ -10943,7 +10943,7 @@
         <v>370.23</v>
       </c>
       <c r="D419" t="n">
-        <v>364.4166666666667</v>
+        <v>364.42</v>
       </c>
       <c r="E419" t="n">
         <v>352.8</v>
@@ -10997,7 +10997,7 @@
         <v>402.66</v>
       </c>
       <c r="D421" t="n">
-        <v>375.2266666666667</v>
+        <v>375.23</v>
       </c>
       <c r="E421" t="n">
         <v>389.22</v>
@@ -11024,7 +11024,7 @@
         <v>393.24</v>
       </c>
       <c r="D422" t="n">
-        <v>378.1166666666667</v>
+        <v>378.12</v>
       </c>
       <c r="E422" t="n">
         <v>378.35</v>
@@ -11051,7 +11051,7 @@
         <v>371.81</v>
       </c>
       <c r="D423" t="n">
-        <v>361.0866666666667</v>
+        <v>361.09</v>
       </c>
       <c r="E423" t="n">
         <v>346.79</v>
@@ -11078,7 +11078,7 @@
         <v>381.89</v>
       </c>
       <c r="D424" t="n">
-        <v>379.4833333333333</v>
+        <v>379.48</v>
       </c>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr"/>
@@ -11153,7 +11153,7 @@
         <v>378.57</v>
       </c>
       <c r="D427" t="n">
-        <v>370.3733333333333</v>
+        <v>370.37</v>
       </c>
       <c r="E427" t="n">
         <v>369.07</v>
@@ -11180,7 +11180,7 @@
         <v>378.99</v>
       </c>
       <c r="D428" t="n">
-        <v>371.1266666666667</v>
+        <v>371.13</v>
       </c>
       <c r="E428" t="n">
         <v>364.18</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="n">
-        <v>350.1466666666667</v>
+        <v>350.15</v>
       </c>
       <c r="E430" t="n">
         <v>366.29</v>
@@ -11259,7 +11259,7 @@
         <v>398.58</v>
       </c>
       <c r="D431" t="n">
-        <v>391.8066666666667</v>
+        <v>391.81</v>
       </c>
       <c r="E431" t="n">
         <v>378.25</v>
@@ -11313,7 +11313,7 @@
         <v>380.14</v>
       </c>
       <c r="D433" t="n">
-        <v>374.4533333333333</v>
+        <v>374.45</v>
       </c>
       <c r="E433" t="n">
         <v>379.92</v>
@@ -11386,7 +11386,7 @@
         <v>372.5</v>
       </c>
       <c r="D436" t="n">
-        <v>369.5166666666667</v>
+        <v>369.52</v>
       </c>
       <c r="E436" t="n">
         <v>368.69</v>
@@ -11413,7 +11413,7 @@
         <v>365.27</v>
       </c>
       <c r="D437" t="n">
-        <v>364.8133333333333</v>
+        <v>364.81</v>
       </c>
       <c r="E437" t="n">
         <v>352.04</v>
@@ -11467,7 +11467,7 @@
         <v>359.84</v>
       </c>
       <c r="D439" t="n">
-        <v>363.3933333333333</v>
+        <v>363.39</v>
       </c>
       <c r="E439" t="n">
         <v>365.03</v>
@@ -11580,7 +11580,7 @@
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr"/>
       <c r="D444" t="n">
-        <v>339.6566666666667</v>
+        <v>339.66</v>
       </c>
       <c r="E444" t="n">
         <v>342.35</v>
@@ -11680,7 +11680,7 @@
         <v>346.63</v>
       </c>
       <c r="D448" t="n">
-        <v>340.2466666666667</v>
+        <v>340.25</v>
       </c>
       <c r="E448" t="n">
         <v>342.65</v>
@@ -11707,7 +11707,7 @@
         <v>328.75</v>
       </c>
       <c r="D449" t="n">
-        <v>332.1666666666667</v>
+        <v>332.17</v>
       </c>
       <c r="E449" t="n">
         <v>333.16</v>
@@ -11778,7 +11778,7 @@
         <v>359.58</v>
       </c>
       <c r="D452" t="n">
-        <v>355.4733333333333</v>
+        <v>355.47</v>
       </c>
       <c r="E452" t="n">
         <v>352.17</v>
@@ -11805,7 +11805,7 @@
         <v>359.31</v>
       </c>
       <c r="D453" t="n">
-        <v>357.3566666666667</v>
+        <v>357.36</v>
       </c>
       <c r="E453" t="inlineStr"/>
       <c r="F453" t="inlineStr"/>
@@ -11828,7 +11828,7 @@
         <v>366.42</v>
       </c>
       <c r="D454" t="n">
-        <v>353.9966666666667</v>
+        <v>354</v>
       </c>
       <c r="E454" t="n">
         <v>348.85</v>
@@ -11855,7 +11855,7 @@
         <v>363.54</v>
       </c>
       <c r="D455" t="n">
-        <v>361.4333333333333</v>
+        <v>361.43</v>
       </c>
       <c r="E455" t="n">
         <v>346.26</v>
@@ -11882,7 +11882,7 @@
         <v>353.43</v>
       </c>
       <c r="D456" t="n">
-        <v>344.5466666666667</v>
+        <v>344.55</v>
       </c>
       <c r="E456" t="n">
         <v>339.83</v>
@@ -11909,7 +11909,7 @@
         <v>373.47</v>
       </c>
       <c r="D457" t="n">
-        <v>377.4966666666666</v>
+        <v>377.5</v>
       </c>
       <c r="E457" t="n">
         <v>378.81</v>
@@ -11934,7 +11934,7 @@
         <v>350.54</v>
       </c>
       <c r="D458" t="n">
-        <v>361.5666666666667</v>
+        <v>361.57</v>
       </c>
       <c r="E458" t="n">
         <v>366.06</v>
@@ -11962,7 +11962,7 @@
         <v>363.57</v>
       </c>
       <c r="E459" t="n">
-        <v>368.2000000000001</v>
+        <v>368.2</v>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
@@ -12005,7 +12005,7 @@
         <v>349.62</v>
       </c>
       <c r="D461" t="n">
-        <v>355.2233333333333</v>
+        <v>355.22</v>
       </c>
       <c r="E461" t="n">
         <v>363.18</v>
@@ -12086,7 +12086,7 @@
         <v>370.28</v>
       </c>
       <c r="D464" t="n">
-        <v>361.5166666666667</v>
+        <v>361.52</v>
       </c>
       <c r="E464" t="n">
         <v>348.8</v>
@@ -12195,7 +12195,7 @@
         <v>387.04</v>
       </c>
       <c r="D469" t="n">
-        <v>363.1566666666667</v>
+        <v>363.16</v>
       </c>
       <c r="E469" t="n">
         <v>354.85</v>
@@ -12220,7 +12220,7 @@
         <v>333.13</v>
       </c>
       <c r="D470" t="n">
-        <v>343.9833333333333</v>
+        <v>343.98</v>
       </c>
       <c r="E470" t="n">
         <v>339.51</v>
@@ -12245,7 +12245,7 @@
         <v>338.79</v>
       </c>
       <c r="D471" t="n">
-        <v>348.0733333333333</v>
+        <v>348.07</v>
       </c>
       <c r="E471" t="n">
         <v>346.58</v>
@@ -12272,7 +12272,7 @@
         <v>371.31</v>
       </c>
       <c r="D472" t="n">
-        <v>362.7466666666666</v>
+        <v>362.75</v>
       </c>
       <c r="E472" t="n">
         <v>361.23</v>
@@ -12299,7 +12299,7 @@
         <v>395.56</v>
       </c>
       <c r="D473" t="n">
-        <v>375.5666666666667</v>
+        <v>375.57</v>
       </c>
       <c r="E473" t="n">
         <v>370.48</v>
@@ -12326,7 +12326,7 @@
         <v>364.71</v>
       </c>
       <c r="D474" t="n">
-        <v>357.0366666666667</v>
+        <v>357.04</v>
       </c>
       <c r="E474" t="n">
         <v>347.61</v>
@@ -12380,7 +12380,7 @@
         <v>374.11</v>
       </c>
       <c r="D476" t="n">
-        <v>371.7933333333333</v>
+        <v>371.79</v>
       </c>
       <c r="E476" t="n">
         <v>363.47</v>
@@ -12407,7 +12407,7 @@
         <v>357.42</v>
       </c>
       <c r="D477" t="n">
-        <v>350.8533333333333</v>
+        <v>350.85</v>
       </c>
       <c r="E477" t="n">
         <v>348.47</v>
@@ -12432,7 +12432,7 @@
         <v>377</v>
       </c>
       <c r="D478" t="n">
-        <v>363.7166666666667</v>
+        <v>363.72</v>
       </c>
       <c r="E478" t="n">
         <v>365.98</v>
@@ -12486,7 +12486,7 @@
         <v>365.55</v>
       </c>
       <c r="D480" t="n">
-        <v>356.9766666666667</v>
+        <v>356.98</v>
       </c>
       <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr"/>
@@ -12509,7 +12509,7 @@
         <v>382.98</v>
       </c>
       <c r="D481" t="n">
-        <v>375.3433333333333</v>
+        <v>375.34</v>
       </c>
       <c r="E481" t="n">
         <v>375.18</v>
@@ -12536,7 +12536,7 @@
         <v>397.42</v>
       </c>
       <c r="D482" t="n">
-        <v>395.0866666666667</v>
+        <v>395.09</v>
       </c>
       <c r="E482" t="n">
         <v>378.34</v>
@@ -12584,7 +12584,7 @@
         <v>390.65</v>
       </c>
       <c r="D484" t="n">
-        <v>384.9933333333333</v>
+        <v>384.99</v>
       </c>
       <c r="E484" t="n">
         <v>375.21</v>
@@ -12638,7 +12638,7 @@
         <v>392.68</v>
       </c>
       <c r="D486" t="n">
-        <v>365.5466666666667</v>
+        <v>365.55</v>
       </c>
       <c r="E486" t="n">
         <v>378.36</v>
@@ -12692,7 +12692,7 @@
         <v>386.11</v>
       </c>
       <c r="D488" t="n">
-        <v>379.5533333333333</v>
+        <v>379.55</v>
       </c>
       <c r="E488" t="n">
         <v>376.64</v>
@@ -12738,7 +12738,7 @@
         <v>351.92</v>
       </c>
       <c r="D490" t="n">
-        <v>335.2466666666667</v>
+        <v>335.25</v>
       </c>
       <c r="E490" t="n">
         <v>353.89</v>
@@ -12765,7 +12765,7 @@
         <v>373.66</v>
       </c>
       <c r="D491" t="n">
-        <v>354.4866666666667</v>
+        <v>354.49</v>
       </c>
       <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
@@ -12788,7 +12788,7 @@
         <v>378.65</v>
       </c>
       <c r="D492" t="n">
-        <v>361.7433333333333</v>
+        <v>361.74</v>
       </c>
       <c r="E492" t="n">
         <v>357.18</v>
@@ -12842,7 +12842,7 @@
         <v>386.32</v>
       </c>
       <c r="D494" t="n">
-        <v>375.6266666666667</v>
+        <v>375.63</v>
       </c>
       <c r="E494" t="n">
         <v>371.98</v>
@@ -12896,7 +12896,7 @@
         <v>367.22</v>
       </c>
       <c r="D496" t="n">
-        <v>378.1633333333333</v>
+        <v>378.16</v>
       </c>
       <c r="E496" t="n">
         <v>383.48</v>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="n">
-        <v>377.0666666666667</v>
+        <v>377.07</v>
       </c>
       <c r="E497" t="n">
         <v>377.72</v>
@@ -12967,7 +12967,7 @@
         <v>360.3</v>
       </c>
       <c r="D499" t="n">
-        <v>359.9766666666667</v>
+        <v>359.98</v>
       </c>
       <c r="E499" t="n">
         <v>351.48</v>
@@ -12994,7 +12994,7 @@
         <v>352.99</v>
       </c>
       <c r="D500" t="n">
-        <v>364.4766666666667</v>
+        <v>364.48</v>
       </c>
       <c r="E500" t="n">
         <v>358.85</v>
@@ -13017,7 +13017,7 @@
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="n">
-        <v>365.1866666666667</v>
+        <v>365.19</v>
       </c>
       <c r="E501" t="n">
         <v>362.37</v>
@@ -13044,7 +13044,7 @@
         <v>377.09</v>
       </c>
       <c r="D502" t="n">
-        <v>377.8266666666667</v>
+        <v>377.83</v>
       </c>
       <c r="E502" t="n">
         <v>365.67</v>
@@ -13089,16 +13089,16 @@
         <v>366.72</v>
       </c>
       <c r="C504" t="n">
-        <v>364.3200000000001</v>
+        <v>364.32</v>
       </c>
       <c r="D504" t="n">
-        <v>366.7366666666667</v>
+        <v>366.74</v>
       </c>
       <c r="E504" t="n">
         <v>368.59</v>
       </c>
       <c r="F504" t="n">
-        <v>366.9500000000001</v>
+        <v>366.95</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>351.44</v>
       </c>
       <c r="D506" t="n">
-        <v>345.7033333333333</v>
+        <v>345.7</v>
       </c>
       <c r="E506" t="n">
         <v>353.6</v>
@@ -13192,7 +13192,7 @@
         <v>354.29</v>
       </c>
       <c r="D508" t="n">
-        <v>352.4833333333333</v>
+        <v>352.48</v>
       </c>
       <c r="E508" t="n">
         <v>361.39</v>
@@ -13246,13 +13246,13 @@
         <v>376.22</v>
       </c>
       <c r="D510" t="n">
-        <v>373.6466666666667</v>
+        <v>373.65</v>
       </c>
       <c r="E510" t="n">
         <v>372.15</v>
       </c>
       <c r="F510" t="n">
-        <v>370.4500000000001</v>
+        <v>370.45</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>370.09</v>
       </c>
       <c r="D511" t="n">
-        <v>373.7033333333333</v>
+        <v>373.7</v>
       </c>
       <c r="E511" t="n">
         <v>375.03</v>
@@ -13327,7 +13327,7 @@
         <v>388.7</v>
       </c>
       <c r="D513" t="n">
-        <v>399.0566666666667</v>
+        <v>399.06</v>
       </c>
       <c r="E513" t="n">
         <v>406.73</v>
@@ -13427,10 +13427,10 @@
         <v>379.14</v>
       </c>
       <c r="D517" t="n">
-        <v>377.3366666666667</v>
+        <v>377.34</v>
       </c>
       <c r="E517" t="n">
-        <v>390.4500000000001</v>
+        <v>390.45</v>
       </c>
       <c r="F517" t="n">
         <v>383.34</v>
@@ -13477,7 +13477,7 @@
         <v>363.17</v>
       </c>
       <c r="D519" t="n">
-        <v>372.8466666666667</v>
+        <v>372.85</v>
       </c>
       <c r="E519" t="n">
         <v>380.31</v>
@@ -13500,7 +13500,7 @@
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="n">
-        <v>372.3466666666667</v>
+        <v>372.35</v>
       </c>
       <c r="E520" t="n">
         <v>379.22</v>
@@ -13527,7 +13527,7 @@
         <v>360.46</v>
       </c>
       <c r="D521" t="n">
-        <v>362.3133333333333</v>
+        <v>362.31</v>
       </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
@@ -13550,7 +13550,7 @@
         <v>377.87</v>
       </c>
       <c r="D522" t="n">
-        <v>373.5666666666667</v>
+        <v>373.57</v>
       </c>
       <c r="E522" t="n">
         <v>367.25</v>
@@ -13577,7 +13577,7 @@
         <v>363.49</v>
       </c>
       <c r="D523" t="n">
-        <v>369.8866666666667</v>
+        <v>369.89</v>
       </c>
       <c r="E523" t="n">
         <v>371.9</v>
@@ -13604,7 +13604,7 @@
         <v>359.03</v>
       </c>
       <c r="D524" t="n">
-        <v>369.2266666666667</v>
+        <v>369.23</v>
       </c>
       <c r="E524" t="n">
         <v>375.88</v>
@@ -13631,7 +13631,7 @@
         <v>339.82</v>
       </c>
       <c r="D525" t="n">
-        <v>359.6266666666667</v>
+        <v>359.63</v>
       </c>
       <c r="E525" t="n">
         <v>363.87</v>
@@ -13658,7 +13658,7 @@
         <v>362.83</v>
       </c>
       <c r="D526" t="n">
-        <v>369.3333333333333</v>
+        <v>369.33</v>
       </c>
       <c r="E526" t="n">
         <v>374.19</v>
@@ -13704,7 +13704,7 @@
         <v>351.74</v>
       </c>
       <c r="D528" t="n">
-        <v>347.1233333333333</v>
+        <v>347.12</v>
       </c>
       <c r="E528" t="n">
         <v>336.67</v>
@@ -13731,7 +13731,7 @@
         <v>349.99</v>
       </c>
       <c r="D529" t="n">
-        <v>345.7233333333333</v>
+        <v>345.72</v>
       </c>
       <c r="E529" t="n">
         <v>351.7</v>
@@ -13785,7 +13785,7 @@
         <v>356.36</v>
       </c>
       <c r="D531" t="n">
-        <v>356.2733333333333</v>
+        <v>356.27</v>
       </c>
       <c r="E531" t="n">
         <v>352.47</v>
@@ -13812,7 +13812,7 @@
         <v>300.02</v>
       </c>
       <c r="D532" t="n">
-        <v>315.7733333333333</v>
+        <v>315.77</v>
       </c>
       <c r="E532" t="n">
         <v>322.76</v>
@@ -13885,7 +13885,7 @@
         <v>327</v>
       </c>
       <c r="D535" t="n">
-        <v>328.3933333333333</v>
+        <v>328.39</v>
       </c>
       <c r="E535" t="n">
         <v>328.4</v>
@@ -13966,7 +13966,7 @@
         <v>348.51</v>
       </c>
       <c r="D538" t="n">
-        <v>338.7633333333333</v>
+        <v>338.76</v>
       </c>
       <c r="E538" t="n">
         <v>317.84</v>
@@ -14100,7 +14100,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>346.1799999999999</v>
+        <v>346.18</v>
       </c>
       <c r="C544" t="n">
         <v>363.85</v>
@@ -14156,7 +14156,7 @@
         <v>354.2</v>
       </c>
       <c r="D546" t="n">
-        <v>350.6866666666667</v>
+        <v>350.69</v>
       </c>
       <c r="E546" t="n">
         <v>355.6</v>
@@ -14186,7 +14186,7 @@
         <v>339.79</v>
       </c>
       <c r="E547" t="n">
-        <v>338.4299999999999</v>
+        <v>338.43</v>
       </c>
       <c r="F547" t="n">
         <v>334.25</v>
@@ -14279,7 +14279,7 @@
         <v>355.28</v>
       </c>
       <c r="D551" t="n">
-        <v>342.3566666666667</v>
+        <v>342.36</v>
       </c>
       <c r="E551" t="n">
         <v>347.67</v>
@@ -14306,7 +14306,7 @@
         <v>353.95</v>
       </c>
       <c r="D552" t="n">
-        <v>345.8566666666667</v>
+        <v>345.86</v>
       </c>
       <c r="E552" t="n">
         <v>336.6</v>
@@ -14333,7 +14333,7 @@
         <v>369.01</v>
       </c>
       <c r="D553" t="n">
-        <v>355.3333333333333</v>
+        <v>355.33</v>
       </c>
       <c r="E553" t="n">
         <v>345.05</v>
@@ -14360,7 +14360,7 @@
         <v>368.2</v>
       </c>
       <c r="D554" t="n">
-        <v>355.9766666666667</v>
+        <v>355.98</v>
       </c>
       <c r="E554" t="n">
         <v>359.39</v>
@@ -14387,7 +14387,7 @@
         <v>364.27</v>
       </c>
       <c r="D555" t="n">
-        <v>344.1366666666667</v>
+        <v>344.14</v>
       </c>
       <c r="E555" t="n">
         <v>335.21</v>
@@ -14414,7 +14414,7 @@
         <v>357.32</v>
       </c>
       <c r="D556" t="n">
-        <v>339.7333333333333</v>
+        <v>339.73</v>
       </c>
       <c r="E556" t="n">
         <v>332</v>
@@ -14464,7 +14464,7 @@
         <v>362.05</v>
       </c>
       <c r="D558" t="n">
-        <v>353.8733333333333</v>
+        <v>353.87</v>
       </c>
       <c r="E558" t="n">
         <v>339.45</v>
@@ -14491,7 +14491,7 @@
         <v>358.24</v>
       </c>
       <c r="D559" t="n">
-        <v>354.8033333333333</v>
+        <v>354.8</v>
       </c>
       <c r="E559" t="n">
         <v>353.52</v>
@@ -14518,7 +14518,7 @@
         <v>353.19</v>
       </c>
       <c r="D560" t="n">
-        <v>351.2066666666667</v>
+        <v>351.21</v>
       </c>
       <c r="E560" t="n">
         <v>351.83</v>
@@ -14543,7 +14543,7 @@
         <v>384.63</v>
       </c>
       <c r="D561" t="n">
-        <v>374.4366666666667</v>
+        <v>374.44</v>
       </c>
       <c r="E561" t="n">
         <v>371.86</v>
@@ -14568,7 +14568,7 @@
         <v>384.24</v>
       </c>
       <c r="D562" t="n">
-        <v>375.8433333333333</v>
+        <v>375.84</v>
       </c>
       <c r="E562" t="n">
         <v>371.67</v>
@@ -14595,7 +14595,7 @@
         <v>339.61</v>
       </c>
       <c r="D563" t="n">
-        <v>346.0433333333333</v>
+        <v>346.04</v>
       </c>
       <c r="E563" t="n">
         <v>347.33</v>
@@ -14670,7 +14670,7 @@
         <v>345.61</v>
       </c>
       <c r="D566" t="n">
-        <v>353.1233333333333</v>
+        <v>353.12</v>
       </c>
       <c r="E566" t="n">
         <v>352.96</v>
@@ -14697,7 +14697,7 @@
         <v>333.38</v>
       </c>
       <c r="D567" t="n">
-        <v>340.0033333333333</v>
+        <v>340</v>
       </c>
       <c r="E567" t="n">
         <v>350.49</v>
@@ -14724,7 +14724,7 @@
         <v>334.75</v>
       </c>
       <c r="D568" t="n">
-        <v>347.0366666666667</v>
+        <v>347.04</v>
       </c>
       <c r="E568" t="n">
         <v>353.49</v>
@@ -14797,7 +14797,7 @@
         <v>328.93</v>
       </c>
       <c r="D571" t="n">
-        <v>320.9933333333333</v>
+        <v>320.99</v>
       </c>
       <c r="E571" t="n">
         <v>343.59</v>
@@ -14899,7 +14899,7 @@
         <v>329.1</v>
       </c>
       <c r="D575" t="n">
-        <v>333.0966666666667</v>
+        <v>333.1</v>
       </c>
       <c r="E575" t="n">
         <v>342.44</v>
@@ -14926,7 +14926,7 @@
         <v>328.38</v>
       </c>
       <c r="D576" t="n">
-        <v>334.2933333333333</v>
+        <v>334.29</v>
       </c>
       <c r="E576" t="n">
         <v>334.4</v>
@@ -14953,7 +14953,7 @@
         <v>337.46</v>
       </c>
       <c r="D577" t="n">
-        <v>332.2733333333333</v>
+        <v>332.27</v>
       </c>
       <c r="E577" t="n">
         <v>338.62</v>
@@ -15007,7 +15007,7 @@
         <v>340.68</v>
       </c>
       <c r="D579" t="n">
-        <v>343.4866666666667</v>
+        <v>343.49</v>
       </c>
       <c r="E579" t="n">
         <v>330</v>
@@ -15034,7 +15034,7 @@
         <v>337.72</v>
       </c>
       <c r="D580" t="n">
-        <v>344.0333333333333</v>
+        <v>344.03</v>
       </c>
       <c r="E580" t="n">
         <v>335.41</v>
@@ -15061,13 +15061,13 @@
         <v>354.96</v>
       </c>
       <c r="D581" t="n">
-        <v>355.4633333333333</v>
+        <v>355.46</v>
       </c>
       <c r="E581" t="n">
         <v>352.61</v>
       </c>
       <c r="F581" t="n">
-        <v>349.8200000000001</v>
+        <v>349.82</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>374.3</v>
       </c>
       <c r="D584" t="n">
-        <v>363.8366666666667</v>
+        <v>363.84</v>
       </c>
       <c r="E584" t="n">
         <v>350</v>
@@ -15159,7 +15159,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>368.5100000000001</v>
+        <v>368.51</v>
       </c>
       <c r="C585" t="n">
         <v>367.77</v>
@@ -15189,7 +15189,7 @@
         <v>381.16</v>
       </c>
       <c r="C586" t="n">
-        <v>372.2000000000001</v>
+        <v>372.2</v>
       </c>
       <c r="D586" t="n">
         <v>363.71</v>
@@ -15246,7 +15246,7 @@
         <v>367.54</v>
       </c>
       <c r="D588" t="n">
-        <v>357.3133333333333</v>
+        <v>357.31</v>
       </c>
       <c r="E588" t="n">
         <v>346.48</v>
@@ -15269,7 +15269,7 @@
       <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="n">
-        <v>322.1733333333333</v>
+        <v>322.17</v>
       </c>
       <c r="E589" t="n">
         <v>315.39</v>
@@ -15315,7 +15315,7 @@
         <v>342.97</v>
       </c>
       <c r="D591" t="n">
-        <v>337.0866666666667</v>
+        <v>337.09</v>
       </c>
       <c r="E591" t="n">
         <v>329.43</v>
@@ -15342,10 +15342,10 @@
         <v>358.86</v>
       </c>
       <c r="D592" t="n">
-        <v>346.8933333333333</v>
+        <v>346.89</v>
       </c>
       <c r="E592" t="n">
-        <v>349.6799999999999</v>
+        <v>349.68</v>
       </c>
       <c r="F592" t="n">
         <v>351.36</v>
@@ -15369,7 +15369,7 @@
         <v>380.35</v>
       </c>
       <c r="D593" t="n">
-        <v>350.9933333333333</v>
+        <v>350.99</v>
       </c>
       <c r="E593" t="n">
         <v>345.04</v>
@@ -15396,7 +15396,7 @@
         <v>360.39</v>
       </c>
       <c r="D594" t="n">
-        <v>339.7133333333333</v>
+        <v>339.71</v>
       </c>
       <c r="E594" t="n">
         <v>347.78</v>
@@ -15423,13 +15423,13 @@
         <v>350.37</v>
       </c>
       <c r="D595" t="n">
-        <v>348.1633333333333</v>
+        <v>348.16</v>
       </c>
       <c r="E595" t="n">
         <v>337.11</v>
       </c>
       <c r="F595" t="n">
-        <v>332.4299999999999</v>
+        <v>332.43</v>
       </c>
       <c r="G595" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>371.79</v>
       </c>
       <c r="D596" t="n">
-        <v>360.0766666666667</v>
+        <v>360.08</v>
       </c>
       <c r="E596" t="n">
         <v>346.02</v>
@@ -15477,7 +15477,7 @@
         <v>373.45</v>
       </c>
       <c r="D597" t="n">
-        <v>360.4966666666666</v>
+        <v>360.5</v>
       </c>
       <c r="E597" t="n">
         <v>360.41</v>
@@ -15552,7 +15552,7 @@
         <v>365.47</v>
       </c>
       <c r="D600" t="n">
-        <v>364.4033333333333</v>
+        <v>364.4</v>
       </c>
       <c r="E600" t="n">
         <v>359.89</v>
@@ -15660,7 +15660,7 @@
         <v>365.16</v>
       </c>
       <c r="D604" t="n">
-        <v>363.3466666666667</v>
+        <v>363.35</v>
       </c>
       <c r="E604" t="n">
         <v>357.48</v>
@@ -15741,7 +15741,7 @@
         <v>360.44</v>
       </c>
       <c r="D607" t="n">
-        <v>352.2666666666667</v>
+        <v>352.27</v>
       </c>
       <c r="E607" t="n">
         <v>346.12</v>
@@ -15814,7 +15814,7 @@
         <v>368.19</v>
       </c>
       <c r="D610" t="n">
-        <v>361.8033333333333</v>
+        <v>361.8</v>
       </c>
       <c r="E610" t="n">
         <v>362.71</v>
@@ -15841,7 +15841,7 @@
         <v>375.9</v>
       </c>
       <c r="D611" t="n">
-        <v>364.3266666666667</v>
+        <v>364.33</v>
       </c>
       <c r="E611" t="n">
         <v>367.89</v>
@@ -15868,7 +15868,7 @@
         <v>343.89</v>
       </c>
       <c r="D612" t="n">
-        <v>341.5633333333333</v>
+        <v>341.56</v>
       </c>
       <c r="E612" t="n">
         <v>329.88</v>
@@ -15895,7 +15895,7 @@
         <v>340.31</v>
       </c>
       <c r="D613" t="n">
-        <v>342.4866666666667</v>
+        <v>342.49</v>
       </c>
       <c r="E613" t="n">
         <v>334.53</v>
@@ -15922,7 +15922,7 @@
         <v>334.12</v>
       </c>
       <c r="D614" t="n">
-        <v>319.0266666666667</v>
+        <v>319.03</v>
       </c>
       <c r="E614" t="n">
         <v>330.07</v>
@@ -15949,7 +15949,7 @@
         <v>345.59</v>
       </c>
       <c r="D615" t="n">
-        <v>335.7466666666667</v>
+        <v>335.75</v>
       </c>
       <c r="E615" t="n">
         <v>337.46</v>
@@ -15999,7 +15999,7 @@
         <v>353.33</v>
       </c>
       <c r="D617" t="n">
-        <v>344.0466666666667</v>
+        <v>344.05</v>
       </c>
       <c r="E617" t="n">
         <v>339.46</v>
@@ -16026,7 +16026,7 @@
         <v>348.36</v>
       </c>
       <c r="D618" t="n">
-        <v>349.0766666666667</v>
+        <v>349.08</v>
       </c>
       <c r="E618" t="n">
         <v>344.26</v>
@@ -16053,7 +16053,7 @@
         <v>336.23</v>
       </c>
       <c r="D619" t="n">
-        <v>330.8366666666667</v>
+        <v>330.84</v>
       </c>
       <c r="E619" t="n">
         <v>327.5</v>
@@ -16107,7 +16107,7 @@
         <v>341.03</v>
       </c>
       <c r="D621" t="n">
-        <v>338.8833333333333</v>
+        <v>338.88</v>
       </c>
       <c r="E621" t="n">
         <v>328.14</v>
@@ -16134,7 +16134,7 @@
         <v>365.83</v>
       </c>
       <c r="D622" t="n">
-        <v>343.3166666666667</v>
+        <v>343.32</v>
       </c>
       <c r="E622" t="n">
         <v>323.1</v>
@@ -16188,7 +16188,7 @@
         <v>357.87</v>
       </c>
       <c r="D624" t="n">
-        <v>348.5166666666667</v>
+        <v>348.52</v>
       </c>
       <c r="E624" t="n">
         <v>342.11</v>
@@ -16215,13 +16215,13 @@
         <v>341.65</v>
       </c>
       <c r="D625" t="n">
-        <v>333.8633333333333</v>
+        <v>333.86</v>
       </c>
       <c r="E625" t="n">
-        <v>322.1799999999999</v>
+        <v>322.18</v>
       </c>
       <c r="F625" t="n">
-        <v>329.4299999999999</v>
+        <v>329.43</v>
       </c>
       <c r="G625" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>369.46</v>
       </c>
       <c r="D629" t="n">
-        <v>364.1866666666667</v>
+        <v>364.19</v>
       </c>
       <c r="E629" t="n">
         <v>358.52</v>
@@ -16350,7 +16350,7 @@
         <v>373.86</v>
       </c>
       <c r="D630" t="n">
-        <v>354.0966666666667</v>
+        <v>354.1</v>
       </c>
       <c r="E630" t="n">
         <v>362.35</v>
@@ -16377,7 +16377,7 @@
         <v>354.98</v>
       </c>
       <c r="D631" t="n">
-        <v>347.0766666666667</v>
+        <v>347.08</v>
       </c>
       <c r="E631" t="n">
         <v>338.43</v>
@@ -16404,7 +16404,7 @@
         <v>371.24</v>
       </c>
       <c r="D632" t="n">
-        <v>350.2433333333333</v>
+        <v>350.24</v>
       </c>
       <c r="E632" t="n">
         <v>349.7</v>
@@ -16431,7 +16431,7 @@
         <v>378.32</v>
       </c>
       <c r="D633" t="n">
-        <v>367.6966666666667</v>
+        <v>367.7</v>
       </c>
       <c r="E633" t="n">
         <v>361.92</v>
@@ -16464,7 +16464,7 @@
         <v>352.84</v>
       </c>
       <c r="F634" t="n">
-        <v>343.4299999999999</v>
+        <v>343.43</v>
       </c>
       <c r="G634" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>362.41</v>
       </c>
       <c r="D636" t="n">
-        <v>352.2033333333333</v>
+        <v>352.2</v>
       </c>
       <c r="E636" t="n">
         <v>344.69</v>
@@ -16539,7 +16539,7 @@
         <v>352.19</v>
       </c>
       <c r="D637" t="n">
-        <v>355.9433333333333</v>
+        <v>355.94</v>
       </c>
       <c r="E637" t="n">
         <v>350.57</v>
@@ -16564,7 +16564,7 @@
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="n">
-        <v>376.5933333333333</v>
+        <v>376.59</v>
       </c>
       <c r="E638" t="n">
         <v>365.51</v>
@@ -16618,7 +16618,7 @@
         <v>379.19</v>
       </c>
       <c r="D640" t="n">
-        <v>381.7833333333333</v>
+        <v>381.78</v>
       </c>
       <c r="E640" t="n">
         <v>375.87</v>
@@ -16672,7 +16672,7 @@
         <v>369.22</v>
       </c>
       <c r="D642" t="n">
-        <v>363.5266666666667</v>
+        <v>363.53</v>
       </c>
       <c r="E642" t="n">
         <v>356.38</v>
@@ -16753,7 +16753,7 @@
         <v>380.15</v>
       </c>
       <c r="D645" t="n">
-        <v>384.7666666666667</v>
+        <v>384.77</v>
       </c>
       <c r="E645" t="n">
         <v>370.05</v>
@@ -16801,7 +16801,7 @@
         <v>358.92</v>
       </c>
       <c r="D647" t="n">
-        <v>349.9233333333333</v>
+        <v>349.92</v>
       </c>
       <c r="E647" t="n">
         <v>349.96</v>
@@ -16828,7 +16828,7 @@
         <v>357.41</v>
       </c>
       <c r="D648" t="n">
-        <v>355.2666666666667</v>
+        <v>355.27</v>
       </c>
       <c r="E648" t="n">
         <v>350.23</v>
@@ -16855,7 +16855,7 @@
         <v>338.46</v>
       </c>
       <c r="D649" t="n">
-        <v>338.1366666666667</v>
+        <v>338.14</v>
       </c>
       <c r="E649" t="n">
         <v>335.86</v>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="n">
-        <v>376.5366666666667</v>
+        <v>376.54</v>
       </c>
       <c r="E650" t="n">
         <v>374.42</v>
@@ -24184,7 +24184,7 @@
         <v>0.0263</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5376663899751482</v>
+        <v>-0.537666389975148</v>
       </c>
       <c r="J2" t="n">
         <v>649</v>
@@ -24199,7 +24199,7 @@
         <v>13.67385653932335</v>
       </c>
       <c r="N2" t="n">
-        <v>316.7477347161726</v>
+        <v>316.7477347161727</v>
       </c>
       <c r="O2" t="n">
         <v>17.79740808983636</v>
@@ -24271,13 +24271,13 @@
         <v>499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06293431931475679</v>
+        <v>0.06293431931475657</v>
       </c>
       <c r="M3" t="n">
         <v>13.67357648979059</v>
       </c>
       <c r="N3" t="n">
-        <v>305.2841711611938</v>
+        <v>305.2841711611939</v>
       </c>
       <c r="O3" t="n">
         <v>17.47238309908508</v>
@@ -24340,7 +24340,7 @@
         <v>0.0314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6246160405415613</v>
+        <v>-0.6246055771208896</v>
       </c>
       <c r="J4" t="n">
         <v>649</v>
@@ -24349,19 +24349,19 @@
         <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07076855462297915</v>
+        <v>0.07076654821380979</v>
       </c>
       <c r="M4" t="n">
-        <v>12.93855370542198</v>
+        <v>12.93848092559246</v>
       </c>
       <c r="N4" t="n">
-        <v>283.6747018663272</v>
+        <v>283.6738529735518</v>
       </c>
       <c r="O4" t="n">
-        <v>16.84264533457637</v>
+        <v>16.84262013386135</v>
       </c>
       <c r="P4" t="n">
-        <v>368.4475134131593</v>
+        <v>368.4474742156667</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24427,16 +24427,16 @@
         <v>553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04784405602328978</v>
+        <v>0.04784405602328967</v>
       </c>
       <c r="M5" t="n">
         <v>13.66880056276518</v>
       </c>
       <c r="N5" t="n">
-        <v>298.8806035300336</v>
+        <v>298.8806035300337</v>
       </c>
       <c r="O5" t="n">
-        <v>17.28816368299518</v>
+        <v>17.28816368299519</v>
       </c>
       <c r="P5" t="n">
         <v>363.1238786629822</v>
@@ -24496,7 +24496,7 @@
         <v>0.0258</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4288299288780509</v>
+        <v>-0.4288299288780511</v>
       </c>
       <c r="J6" t="n">
         <v>649</v>
@@ -24505,7 +24505,7 @@
         <v>571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03374659251371104</v>
+        <v>0.03374659251371126</v>
       </c>
       <c r="M6" t="n">
         <v>13.48112916604788</v>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-40.92742308128063,176.18503325753255</t>
+          <t>-40.92742305718811,176.18503323396052</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-40.9273608502955,176.18497237107613</t>
+          <t>-40.92736082620298,176.18497234750419</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-40.927426767435385,176.185036864051</t>
+          <t>-40.92742674334286,176.185036840479</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -24766,7 +24766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-40.92743088725525,176.18504089486626</t>
+          <t>-40.92743086316274,176.18504087129426</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -24803,7 +24803,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-40.92737872695085,176.18498986148262</t>
+          <t>-40.92737875104336,176.1849898850546</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -24840,7 +24840,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-40.927555228642845,176.185162550296</t>
+          <t>-40.927555252735324,176.18516257386813</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -25009,7 +25009,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-40.92734017890318,176.18495214633236</t>
+          <t>-40.927340154810636,176.1849521227604</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -25150,7 +25150,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-40.92736027207479,176.18497180534885</t>
+          <t>-40.92736024798227,176.1849717817769</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -25187,7 +25187,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-40.92728021256831,176.18489347579026</t>
+          <t>-40.927280236660856,176.18489349936218</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -25261,7 +25261,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-40.92745165499969,176.18506121395444</t>
+          <t>-40.9274516790922,176.18506123752647</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-40.92738072663043,176.18499181795727</t>
+          <t>-40.927380702537896,176.1849917943853</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-40.927520583644046,176.18512865361933</t>
+          <t>-40.92752055955156,176.18512863004725</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -25575,7 +25575,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-40.92741840733259,176.18502868456198</t>
+          <t>-40.9274184314251,176.18502870813398</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -25612,7 +25612,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-40.927420623844064,176.1850308531871</t>
+          <t>-40.927420599751535,176.1850308296151</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-40.92752891964619,176.1851368095619</t>
+          <t>-40.927528943738686,176.18513683313398</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-40.927495310616145,176.18510392651137</t>
+          <t>-40.92749533470863,176.18510395008346</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-40.92741816640743,176.18502844884185</t>
+          <t>-40.927418142314906,176.18502842526985</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -25929,7 +25929,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-40.927337167336354,176.18494919983812</t>
+          <t>-40.9273371914289,176.18494922341006</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-40.927313749389796,176.18492628790818</t>
+          <t>-40.92731377348235,176.1849263114801</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -26032,7 +26032,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-40.92729825788523,176.184911131157</t>
+          <t>-40.92729823379269,176.18491110758507</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-40.92731823060219,176.18493067228857</t>
+          <t>-40.92731825469473,176.1849306958605</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-40.92731100284016,176.1849236007076</t>
+          <t>-40.92731102693271,176.18492362427955</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -26242,7 +26242,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-40.92740633698126,176.1850168749864</t>
+          <t>-40.927406361073785,176.1850168985584</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -26304,7 +26304,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-40.92759640269117,176.18520283505805</t>
+          <t>-40.92759637859869,176.1852028114859</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-40.92739973563085,176.18501041625828</t>
+          <t>-40.92739971153833,176.18501039268628</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -26415,7 +26415,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-40.92735926018854,176.18497081532618</t>
+          <t>-40.927359236096024,176.18497079175418</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-40.92733283067997,176.18494495688688</t>
+          <t>-40.92733285477252,176.18494498045882</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-40.927269298643495,176.18488279771606</t>
+          <t>-40.92726932273605,176.18488282128797</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -26592,7 +26592,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-40.9273848464521,176.18499584876682</t>
+          <t>-40.927384822359585,176.18499582519485</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -26658,7 +26658,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-40.92739518214438,176.18500596115095</t>
+          <t>-40.92739515805185,176.18500593757898</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -26720,7 +26720,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-40.927345985203765,176.184957827174</t>
+          <t>-40.9273460092963,176.18495785074595</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-40.927489962081324,176.18509869351294</t>
+          <t>-40.92748998617383,176.185098717085</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -26893,7 +26893,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-40.92739997655605,176.18501065197827</t>
+          <t>-40.92740000064857,176.18501067555027</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -26930,7 +26930,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-40.92728344096971,176.1848966344266</t>
+          <t>-40.927283416877145,176.18489661085465</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -26967,7 +26967,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-40.9274120228156,176.18502243797954</t>
+          <t>-40.92741199872308,176.18502241440754</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-40.92734945452845,176.1849612215363</t>
+          <t>-40.92734947862098,176.18496124510827</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-40.927190780991864,176.18480597697405</t>
+          <t>-40.92719075689929,176.1848059534022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-40.92723566543755,176.18484989135533</t>
+          <t>-40.927235641344986,176.18484986778344</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-40.927324446477144,176.18493675384943</t>
+          <t>-40.92732447056969,176.1849367774214</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-40.92737299292965,176.18498425135118</t>
+          <t>-40.927372968837126,176.1849842277792</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -27277,7 +27277,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-40.927314303518216,176.18492683006272</t>
+          <t>-40.92731427942569,176.18492680649078</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-40.92735629680733,176.18496791597414</t>
+          <t>-40.927356272714796,176.18496789240217</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-40.92742879120657,176.18503884410055</t>
+          <t>-40.927428767114044,176.18503882052855</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-40.927372005136064,176.18498328490008</t>
+          <t>-40.927372029228586,176.18498330847206</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-40.92729833016287,176.18491120187278</t>
+          <t>-40.92729830607031,176.18491117830084</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -27632,7 +27632,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-40.92728187495413,176.1848951022522</t>
+          <t>-40.92728189904666,176.1848951258241</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -27706,7 +27706,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-40.92752002951672,176.18512811146138</t>
+          <t>-40.92752005360921,176.18512813503347</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-40.92732256725918,176.1849349152379</t>
+          <t>-40.927322591351725,176.18493493880982</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -27780,7 +27780,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-40.927490395746325,176.18509911781007</t>
+          <t>-40.927490419838826,176.18509914138212</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -27817,7 +27817,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-40.92742093704677,176.1850311596233</t>
+          <t>-40.927420961139276,176.1850311831953</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -27846,7 +27846,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-40.92748820332882,176.18509697275238</t>
+          <t>-40.92748817923634,176.18509694918032</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-40.9274171063367,176.1850274116734</t>
+          <t>-40.92741713042923,176.1850274352454</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-40.92750757369717,176.1851159246958</t>
+          <t>-40.92750754960469,176.1851159011237</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-40.92767843753732,176.185283098296</t>
+          <t>-40.92767841344486,176.1852830747238</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-40.92739918150287,176.18500987410232</t>
+          <t>-40.92739920559541,176.18500989767432</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -28138,7 +28138,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-40.927373884353145,176.18498512351442</t>
+          <t>-40.92737390844565,176.1849851470864</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -28200,7 +28200,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-40.92748468582374,176.1850935312315</t>
+          <t>-40.92748470991625,176.18509355480356</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-40.92732141081734,176.1849337837847</t>
+          <t>-40.92732143490987,176.18493380735663</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -28274,7 +28274,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-40.92736619883691,176.1849776040539</t>
+          <t>-40.927366174744385,176.1849775804819</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -28394,7 +28394,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-40.92742655060275,176.18503665190286</t>
+          <t>-40.92742652651024,176.18503662833083</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-40.92743784999138,176.18504770718093</t>
+          <t>-40.9274378740839,176.18504773075296</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -28542,7 +28542,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-40.927385858338106,176.1849968387903</t>
+          <t>-40.92738583424558,176.1849968152183</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-40.92744259621609,176.1850523508703</t>
+          <t>-40.92744257212358,176.18505232729828</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -28645,7 +28645,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-40.927235328141734,176.184849561349</t>
+          <t>-40.92723535223429,176.1848495849209</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-40.92730261863558,176.18491539767564</t>
+          <t>-40.92730264272813,176.18491542124758</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -28711,7 +28711,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-40.92727876701542,176.1848920614756</t>
+          <t>-40.92727879110797,176.18489208504752</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -28748,7 +28748,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-40.92736937905058,176.1849807155546</t>
+          <t>-40.92736935495806,176.1849806919826</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -28777,7 +28777,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-40.9272961618339,176.18490908039962</t>
+          <t>-40.92729613774135,176.18490905682768</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -28860,7 +28860,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-40.92738267812494,176.18499372728806</t>
+          <t>-40.9273826540324,176.18499370371606</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-40.92752716089436,176.18513508879929</t>
+          <t>-40.92752713680186,176.18513506522717</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-40.927518439412175,176.18512655570382</t>
+          <t>-40.92751846350467,176.1851265792759</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -28971,7 +28971,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-40.92737084869474,176.18498215344516</t>
+          <t>-40.927370872787286,176.18498217701713</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-40.92731488173919,176.1849273957892</t>
+          <t>-40.92731485764665,176.18492737221726</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-40.92734945452845,176.1849612215363</t>
+          <t>-40.92734947862098,176.18496124510827</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -29144,7 +29144,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-40.927327265304044,176.18493951176697</t>
+          <t>-40.927327289396565,176.1849395353389</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -29181,7 +29181,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-40.9272792006813,176.18489248577</t>
+          <t>-40.92727922477385,176.1848925093419</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -29255,7 +29255,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-40.927289536383995,176.1849025981214</t>
+          <t>-40.927289560476545,176.1849026216933</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -29317,7 +29317,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-40.927209356360606,176.1848241508733</t>
+          <t>-40.92720933226804,176.18482412730145</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -29375,7 +29375,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-40.927376895918904,176.184988070012</t>
+          <t>-40.927376871826375,176.18498804644</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -29441,7 +29441,7 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-40.927121852130405,176.1847385379908</t>
+          <t>-40.92712187622299,176.1847385615626</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -29552,7 +29552,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-40.92718456510898,176.18479989543806</t>
+          <t>-40.92718454101641,176.18479987186623</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -29626,7 +29626,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-40.927191720602025,176.1848068962761</t>
+          <t>-40.92719169650947,176.18480687270423</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-40.92719268430476,176.18480783915</t>
+          <t>-40.92719270839733,176.18480786272184</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -29696,7 +29696,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-40.92736583744899,176.1849772504743</t>
+          <t>-40.92736581335645,176.1849772269023</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -29729,7 +29729,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-40.92737270381933,176.18498396848744</t>
+          <t>-40.92737267972681,176.18498394491547</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -29766,7 +29766,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-40.92727826107191,176.18489156646547</t>
+          <t>-40.92727828516447,176.18489159003738</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -29824,7 +29824,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-40.92731779693649,176.18493024799366</t>
+          <t>-40.927317821029035,176.18493027156558</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-40.92735477897791,176.18496643094028</t>
+          <t>-40.927354754885364,176.1849664073683</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -30009,7 +30009,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-40.92736077801791,176.18497230036024</t>
+          <t>-40.92736075392538,176.18497227678824</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-40.92755679465433,176.18516408248323</t>
+          <t>-40.92755677056186,176.1851640589111</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-40.92750326114035,176.18511170529447</t>
+          <t>-40.927503285232845,176.18511172886656</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-40.9276913751856,176.18529575656956</t>
+          <t>-40.92769135109315,176.18529573299736</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -30393,7 +30393,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-40.92741255285098,176.1850229565637</t>
+          <t>-40.927412576943496,176.1850229801357</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -30451,7 +30451,7 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-40.927191359213495,176.18480654269837</t>
+          <t>-40.92719133512094,176.18480651912654</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-40.92723385849567,176.1848481234644</t>
+          <t>-40.9272338344031,176.18484809989255</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -30583,7 +30583,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-40.927341287159756,176.1849532306423</t>
+          <t>-40.927341311252285,176.18495325421426</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -30612,7 +30612,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-40.927532364872334,176.18514018037115</t>
+          <t>-40.92753234077983,176.18514015679904</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-40.92737619723565,176.18498738642452</t>
+          <t>-40.927376221328174,176.1849874099965</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-40.92725019324917,176.18486410520183</t>
+          <t>-40.927250169156636,176.18486408162994</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -30886,7 +30886,7 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-40.92724853086287,176.18486247874145</t>
+          <t>-40.92724850677031,176.18486245516957</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -30952,7 +30952,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-40.92726269728444,176.18487633901506</t>
+          <t>-40.92726267319189,176.18487631544318</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -31239,7 +31239,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-40.92722301684369,176.184837516121</t>
+          <t>-40.927222992751126,176.18483749254912</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -31301,7 +31301,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-40.927366728872535,176.18497812263732</t>
+          <t>-40.92736675296506,176.18497814620932</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -31338,7 +31338,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-40.92733846833323,176.18495047272359</t>
+          <t>-40.92733849242576,176.18495049629556</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -31371,7 +31371,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-40.92746760423916,176.18507681864577</t>
+          <t>-40.92746758014666,176.18507679507374</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-40.927333698011275,176.18494580547707</t>
+          <t>-40.92733372210381,176.184945829049</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-40.92743760906627,176.18504747146068</t>
+          <t>-40.927437584973745,176.18504744788865</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -31482,7 +31482,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-40.92731880882314,176.1849312380151</t>
+          <t>-40.927318832915674,176.18493126158705</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -31660,7 +31660,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-40.927249133176765,176.18486306803868</t>
+          <t>-40.927249157269316,176.1848630916106</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -31689,7 +31689,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-40.927226799375724,176.18484121690486</t>
+          <t>-40.92722682346829,176.18484124047671</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -31726,7 +31726,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-40.92732709665627,176.18493934676334</t>
+          <t>-40.927327072563735,176.1849393231914</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -31788,7 +31788,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-40.927462858015595,176.18507217495284</t>
+          <t>-40.92746288210809,176.1850721985249</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -31953,7 +31953,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-40.927340202995715,176.1849521699043</t>
+          <t>-40.927340227088244,176.18495219347625</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -31982,7 +31982,7 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-40.927028686064844,176.18464738598087</t>
+          <t>-40.927028710157444,176.1846474095526</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-40.9272102959706,176.18482507017586</t>
+          <t>-40.92721027187804,176.184825046604</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -32056,7 +32056,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-40.92721354846672,176.1848282523773</t>
+          <t>-40.92721352437415,176.18482822880543</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -32081,7 +32081,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-40.92718921497488,176.184804444804</t>
+          <t>-40.927189239067474,176.18480446837586</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -32114,7 +32114,7 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-40.927127562072776,176.18474412450723</t>
+          <t>-40.92712758616535,176.18474414807903</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-40.92725469855685,176.18486851314555</t>
+          <t>-40.9272547226494,176.18486853671746</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -32205,7 +32205,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-40.92719427441425,176.18480939489203</t>
+          <t>-40.92719429850682,176.18480941846389</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-40.9272733461919,176.18488675779614</t>
+          <t>-40.92727337028446,176.18488678136805</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -32379,7 +32379,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-40.927339817515175,176.18495179275303</t>
+          <t>-40.927339793422625,176.18495176918105</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -32412,7 +32412,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-40.92724457968373,176.18485861295193</t>
+          <t>-40.927244603776295,176.18485863652384</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -32503,7 +32503,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-40.92720639297515,176.18482125153457</t>
+          <t>-40.92720636888259,176.18482122796274</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -32540,7 +32540,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-40.92733478217537,176.18494686621486</t>
+          <t>-40.927334806267915,176.1849468897868</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -32577,7 +32577,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-40.92713319973708,176.18474964030926</t>
+          <t>-40.92713322382965,176.18474966388106</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-40.92717743370801,176.18479291817343</t>
+          <t>-40.927177457800575,176.18479294174526</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -32651,7 +32651,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-40.92722333004699,176.1848378225553</t>
+          <t>-40.92722335413954,176.18483784612718</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -32688,7 +32688,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-40.92728842812687,176.18490151381317</t>
+          <t>-40.92728840403432,176.18490149024123</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -32721,7 +32721,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-40.92690578961003,176.1845271468127</t>
+          <t>-40.92690576551739,176.18452712324108</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -32795,7 +32795,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-40.92716962771449,176.184785280899</t>
+          <t>-40.927169651807056,176.18478530447084</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -32832,7 +32832,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-40.92723272614539,176.18484701558614</t>
+          <t>-40.927232750237955,176.18484703915803</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -32906,7 +32906,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-40.927307967179964,176.18492063064406</t>
+          <t>-40.92730799127251,176.184920654216</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -32980,7 +32980,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-40.927368246701796,176.18497960767175</t>
+          <t>-40.92736827079431,176.1849796312437</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -33054,7 +33054,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-40.92740655381393,176.1850170871344</t>
+          <t>-40.92740657790645,176.18501711070644</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -33128,7 +33128,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-40.92738303951279,176.18499408086782</t>
+          <t>-40.92738301542027,176.18499405729585</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -33165,7 +33165,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-40.927204826958416,176.18481971936384</t>
+          <t>-40.92720485105097,176.1848197429357</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -33297,7 +33297,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-40.92747772309073,176.1850867189071</t>
+          <t>-40.92747769899823,176.18508669533503</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -33334,7 +33334,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-40.92747818084828,176.18508716677613</t>
+          <t>-40.92747820494079,176.18508719034818</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -33392,7 +33392,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-40.92708976080298,176.18470714037227</t>
+          <t>-40.92708978489558,176.18470716394404</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-40.92727761057309,176.18489093002393</t>
+          <t>-40.92727763466566,176.1848909535958</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -33466,7 +33466,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-40.92719367210005,176.18480880559582</t>
+          <t>-40.92719364800748,176.18480878202396</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -33540,7 +33540,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-40.92721104284009,176.18482580090358</t>
+          <t>-40.92721106693265,176.1848258244754</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-40.92708419541411,176.18470169529292</t>
+          <t>-40.92708421950672,176.1847017188647</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -33804,7 +33804,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-40.92712438185174,176.18474101302962</t>
+          <t>-40.927124405944326,176.1847410366014</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-40.9272732498217,176.18488666350854</t>
+          <t>-40.92727322572916,176.18488663993662</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -33998,7 +33998,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-40.92706229524469,176.18468026856112</t>
+          <t>-40.92706231933728,176.18468029213287</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-40.92712799573926,176.18474454879967</t>
+          <t>-40.92712801983184,176.18474457237147</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -34072,7 +34072,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-40.92717432576622,176.18478987740653</t>
+          <t>-40.92717434985879,176.1847899009784</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-40.92728447694923,176.1848976480189</t>
+          <t>-40.92728450104178,176.18489767159082</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -34146,7 +34146,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-40.92718140898225,176.18479680752685</t>
+          <t>-40.92718143307482,176.18479683109868</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-40.92719962296417,176.18481462784308</t>
+          <t>-40.927199647056725,176.18481465141494</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -34220,7 +34220,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-40.927223522787465,176.18483801113027</t>
+          <t>-40.927223498694914,176.1848379875584</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -34257,7 +34257,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-40.927242772742005,176.18485684506052</t>
+          <t>-40.92724279683456,176.18485686863244</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -34294,7 +34294,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-40.92739453164629,176.1850053247071</t>
+          <t>-40.927394507553764,176.18500530113513</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -34323,7 +34323,7 @@
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-40.92724990413852,176.18486382233917</t>
+          <t>-40.92724988004596,176.18486379876725</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -34360,7 +34360,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-40.92734249178643,176.1849544092401</t>
+          <t>-40.92734246769392,176.18495438566816</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-40.92730840084572,176.18492105493885</t>
+          <t>-40.92730842493825,176.18492107851077</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -34434,7 +34434,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-40.92733562541411,176.18494769123316</t>
+          <t>-40.92733560132158,176.1849476676612</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -34492,7 +34492,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-40.92722846176238,176.18484284336415</t>
+          <t>-40.92722848585494,176.184842866936</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -34529,7 +34529,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-40.927287054851746,176.1849001702139</t>
+          <t>-40.92728703075918,176.18490014664195</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -34566,7 +34566,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-40.92728141719571,176.18489465438586</t>
+          <t>-40.927281393103165,176.18489463081397</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-40.92720005663035,176.18481505213643</t>
+          <t>-40.927200080722926,176.18481507570831</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -34640,7 +34640,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-40.92703545608688,176.18465400963768</t>
+          <t>-40.92703543199427,176.18465398606594</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -34780,7 +34780,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-40.92690219980747,176.1845236346384</t>
+          <t>-40.92690222390011,176.18452365821003</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -34809,7 +34809,7 @@
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-40.926965876622425,176.18458593454</t>
+          <t>-40.92696590071504,176.18458595811165</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -34846,7 +34846,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-40.926990643833214,176.18461016624096</t>
+          <t>-40.92699061974061,176.18461014266924</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -34904,7 +34904,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-40.9270933746917,176.1847106761386</t>
+          <t>-40.92709339878429,176.18471069971037</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -34933,7 +34933,7 @@
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-40.927112456022044,176.18472934499118</t>
+          <t>-40.92711248011464,176.18472936856298</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -34970,7 +34970,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-40.92702731278631,176.1846460423923</t>
+          <t>-40.92702733687891,176.18464606596402</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-40.92688331117993,176.18450515447907</t>
+          <t>-40.926883287087286,176.18450513090744</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -35094,7 +35094,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-40.92698782499726,176.18460740835187</t>
+          <t>-40.92698780090465,176.18460738478018</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -35131,7 +35131,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-40.92721224746828,176.18482697949668</t>
+          <t>-40.927212223375726,176.18482695592482</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-40.927152787004275,176.18476880419286</t>
+          <t>-40.92715281109686,176.18476882776466</t>
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
@@ -35271,7 +35271,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-40.92722036666193,176.18483492321533</t>
+          <t>-40.92722039075449,176.18483494678722</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -35329,7 +35329,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-40.927248988621415,176.18486292660737</t>
+          <t>-40.927249012713986,176.18486295017922</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -35403,7 +35403,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-40.92734735847814,176.1849591707757</t>
+          <t>-40.927347382570666,176.18495919434767</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-40.92743775362133,176.18504761289282</t>
+          <t>-40.92743772952882,176.18504758932082</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -35560,7 +35560,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-40.92742806843116,176.18503813694</t>
+          <t>-40.927428044338626,176.18503811336797</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -35659,7 +35659,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>-40.92728141719571,176.18489465438586</t>
+          <t>-40.927281393103165,176.18489463081397</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -35688,7 +35688,7 @@
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-40.9273657651714,176.1849771797584</t>
+          <t>-40.92736574107887,176.1849771561864</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -35746,7 +35746,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-40.92739756730398,176.18500829477853</t>
+          <t>-40.92739754321145,176.18500827120653</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -35783,7 +35783,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-40.92736887310752,176.1849802205431</t>
+          <t>-40.927368849014975,176.1849801969711</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -35915,7 +35915,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-40.927280116198126,176.1848933815026</t>
+          <t>-40.92728009210558,176.18489335793072</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-40.92724874769586,176.18486269088845</t>
+          <t>-40.92724872360332,176.18486266731657</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -36063,7 +36063,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>-40.927403012213595,176.18501362205018</t>
+          <t>-40.927403036306096,176.18501364562218</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-40.927296764147506,176.1849096696977</t>
+          <t>-40.92729678824006,176.18490969326962</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-40.92743623579308,176.18504612785526</t>
+          <t>-40.92743621170057,176.18504610428326</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -36269,7 +36269,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-40.92720704347442,176.18482188797478</t>
+          <t>-40.92720701938183,176.18482186440292</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-40.927284163746116,176.18489734158402</t>
+          <t>-40.92728413965357,176.1848973180121</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -36574,7 +36574,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-40.92726493789176,176.18487853120175</t>
+          <t>-40.927264913799206,176.18487850762986</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-40.92731386985249,176.18492640576787</t>
+          <t>-40.927313845759976,176.18492638219593</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -36648,7 +36648,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-40.92731880882314,176.1849312380151</t>
+          <t>-40.927318832915674,176.18493126158705</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-40.927166230661584,176.1847819572709</t>
+          <t>-40.92716625475415,176.18478198084273</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -36722,7 +36722,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>-40.927443270806386,176.18505301088712</t>
+          <t>-40.927443294898886,176.18505303445917</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -36796,7 +36796,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-40.927318447435056,176.184930884436</t>
+          <t>-40.92731847152759,176.18493090800797</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -36953,7 +36953,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-40.92732528971596,176.18493757886748</t>
+          <t>-40.92732526562343,176.18493755529553</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -36990,7 +36990,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>-40.92726741942453,176.18488095910763</t>
+          <t>-40.92726744351709,176.18488098267954</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -37027,7 +37027,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-40.92684052264371,176.1844632913006</t>
+          <t>-40.92684049855106,176.184463267729</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -37060,7 +37060,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>-40.92709378426574,176.18471107685878</t>
+          <t>-40.92709376017315,176.184711053287</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -37254,7 +37254,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>-40.92728474196724,176.18489790730996</t>
+          <t>-40.927284717874706,176.18489788373807</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -37287,7 +37287,7 @@
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>-40.92713621130975,176.18475258678507</t>
+          <t>-40.92713618721718,176.18475256321327</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -37316,7 +37316,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-40.92730302820882,176.18491579839844</t>
+          <t>-40.92730300411627,176.1849157748265</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -37353,7 +37353,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>-40.92735752552638,176.18496911814447</t>
+          <t>-40.927357501433846,176.1849690945725</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -37382,7 +37382,7 @@
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>-40.92755168704752,176.185159085196</t>
+          <t>-40.927551711140005,176.1851591087681</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -37419,7 +37419,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-40.92749268453376,176.18510135715619</t>
+          <t>-40.92749266044127,176.18510133358413</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -37456,7 +37456,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>-40.92743797045394,176.18504782504107</t>
+          <t>-40.927437946361415,176.18504780146904</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -37493,7 +37493,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>-40.92733822740789,176.18495023700405</t>
+          <t>-40.92733820331536,176.1849502134321</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -37666,7 +37666,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-40.92740761388476,176.18501812430256</t>
+          <t>-40.92740758979225,176.18501810073056</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -37695,7 +37695,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>-40.927334902638044,176.1849469840746</t>
+          <t>-40.927334878545516,176.18494696050269</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -37769,7 +37769,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>-40.92736152488633,176.1849730310913</t>
+          <t>-40.92736154897886,176.1849730546633</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -37802,7 +37802,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>-40.92732054348595,176.1849329351948</t>
+          <t>-40.927320567578484,176.18493295876675</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -37839,7 +37839,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>-40.927195719968296,176.18481080920304</t>
+          <t>-40.92719574406088,176.1848108327749</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -38033,7 +38033,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>-40.927297462831284,176.18491035328347</t>
+          <t>-40.92729743873874,176.18491032971158</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -38070,7 +38070,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>-40.927317556011104,176.1849300122743</t>
+          <t>-40.92731753191857,176.18492998870232</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -38265,7 +38265,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>-40.92725756557074,176.184871318201</t>
+          <t>-40.92725754147818,176.1848712946291</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -38340,7 +38340,7 @@
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
-          <t>-40.92726508244707,176.18487867263315</t>
+          <t>-40.927265058354514,176.18487864906126</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -38406,7 +38406,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>-40.92736981271608,176.18498113985018</t>
+          <t>-40.92736978862355,176.18498111627818</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -38443,7 +38443,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>-40.927345190150184,176.18495704929936</t>
+          <t>-40.927345214242706,176.1849570728713</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -38517,7 +38517,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>-40.927423322205776,176.1850334932527</t>
+          <t>-40.927423346298305,176.1850335168247</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -38554,7 +38554,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>-40.92744421041429,176.1850539301963</t>
+          <t>-40.927444234506794,176.18505395376832</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -38591,7 +38591,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>-40.92732112170687,176.18493350092137</t>
+          <t>-40.92732114579941,176.18493352449335</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -38628,7 +38628,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>-40.92745408834304,176.1850635947301</t>
+          <t>-40.92745406425053,176.18506357115808</t>
         </is>
       </c>
       <c r="E424" t="inlineStr"/>
@@ -38727,7 +38727,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>-40.92738824349794,176.1849991724172</t>
+          <t>-40.92738821940541,176.1849991488452</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -38764,7 +38764,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>-40.92739368840802,176.18500449968732</t>
+          <t>-40.92739371250054,176.1850045232593</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -38834,7 +38834,7 @@
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr">
         <is>
-          <t>-40.927242049965294,176.184856137904</t>
+          <t>-40.92724207405785,176.1848561614759</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -38871,7 +38871,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>-40.92754315830729,176.18515074067093</t>
+          <t>-40.92754318239978,176.18515076424302</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -38945,7 +38945,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>-40.92741773274213,176.18502802454566</t>
+          <t>-40.92741770864963,176.18502800097366</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -39040,7 +39040,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>-40.92738205171929,176.18499311441641</t>
+          <t>-40.92738207581182,176.18499313798839</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -39077,7 +39077,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>-40.92734805716158,176.18495985436255</t>
+          <t>-40.92734803306905,176.1849598307906</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -39151,7 +39151,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>-40.92733779374226,176.18494981270888</t>
+          <t>-40.927337769649725,176.1849497891369</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -39292,7 +39292,7 @@
       <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr">
         <is>
-          <t>-40.927166230661584,176.1847819572709</t>
+          <t>-40.92716625475415,176.18478198084273</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -39424,7 +39424,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>-40.927170495047136,176.18478612948496</t>
+          <t>-40.927170519139715,176.1847861530568</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -39461,7 +39461,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>-40.92711209463324,176.18472899141435</t>
+          <t>-40.92711211872582,176.18472901498612</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -39552,7 +39552,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>-40.927280549863994,176.18489380579703</t>
+          <t>-40.927280525771444,176.18489378222512</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -39589,7 +39589,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>-40.92729416215269,176.18490712393006</t>
+          <t>-40.92729418624524,176.18490714750195</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -39618,7 +39618,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>-40.927269876864706,176.18488336344177</t>
+          <t>-40.92726990095725,176.18488338701366</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -39655,7 +39655,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>-40.927323627330864,176.18493595240335</t>
+          <t>-40.92732360323832,176.18493592883144</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -39692,7 +39692,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>-40.927201574462025,176.18481653716327</t>
+          <t>-40.92720159855461,176.18481656073513</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -39729,7 +39729,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>-40.927439729207286,176.185049545799</t>
+          <t>-40.92743975329979,176.18504956937102</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -39762,7 +39762,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>-40.92732459103238,176.1849368952811</t>
+          <t>-40.92732461512492,176.18493691885305</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -39853,7 +39853,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>-40.92727874292289,176.18489203790367</t>
+          <t>-40.92727871883034,176.18489201433178</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>-40.927324229644306,176.18493654170194</t>
+          <t>-40.92732425373684,176.1849365652739</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -40097,7 +40097,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>-40.92733608317228,176.18494813910024</t>
+          <t>-40.92733610726482,176.18494816267219</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>-40.92719750281828,176.18481255352006</t>
+          <t>-40.92719747872572,176.1848125299482</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -40163,7 +40163,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-40.92722706439388,176.18484147619546</t>
+          <t>-40.92722704030134,176.18484145262357</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>-40.927333119790404,176.18494523975028</t>
+          <t>-40.92733314388295,176.18494526332225</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -40237,7 +40237,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>-40.9274257796423,176.1850358975983</t>
+          <t>-40.927425803734806,176.18503592117034</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -40274,7 +40274,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>-40.927291849268364,176.18490486102561</t>
+          <t>-40.927291873360915,176.18490488459756</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -40348,7 +40348,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>-40.92739850691229,176.18500921408642</t>
+          <t>-40.927398482819775,176.1850091905144</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>-40.92724715758721,176.18486113514382</t>
+          <t>-40.92724713349467,176.18486111157193</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -40418,7 +40418,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>-40.92734013071811,176.18495209918845</t>
+          <t>-40.927340154810636,176.1849521227604</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -40492,7 +40492,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-40.92729141560255,176.18490443673107</t>
+          <t>-40.927291439695104,176.184904460303</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -40521,7 +40521,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>-40.92742416544381,176.18503431827324</t>
+          <t>-40.9274241413513,176.1850342947012</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -40558,7 +40558,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>-40.92756686531232,176.18517393562738</t>
+          <t>-40.927566889404794,176.18517395919946</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -40620,7 +40620,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>-40.92749391325122,176.18510255933154</t>
+          <t>-40.92749388915872,176.18510253575948</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -40694,7 +40694,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>-40.92735335751856,176.18496504019436</t>
+          <t>-40.927353381611105,176.1849650637663</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -40768,7 +40768,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>-40.9274545942857,176.1850640897429</t>
+          <t>-40.9274545701932,176.18506406617087</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -40826,7 +40826,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>-40.92713435618099,176.18475077175594</t>
+          <t>-40.92713438027358,176.18475079532774</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -40863,7 +40863,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>-40.92727341846957,176.18488682851185</t>
+          <t>-40.9272734425621,176.18488685208376</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -40892,7 +40892,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>-40.92732586793687,176.18493814459413</t>
+          <t>-40.92732584384433,176.1849381210222</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -40966,7 +40966,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>-40.92742621330755,176.18503632189461</t>
+          <t>-40.92742623740007,176.18503634546664</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -41040,7 +41040,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>-40.92744454770942,176.1850542602047</t>
+          <t>-40.92744452361693,176.18505423663268</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -41073,7 +41073,7 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>-40.92743662127327,176.18504650500765</t>
+          <t>-40.92743664536579,176.18504652857968</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -41131,7 +41131,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>-40.92731309889121,176.1849256514659</t>
+          <t>-40.92731312298375,176.18492567503787</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -41168,7 +41168,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>-40.92734562381578,176.18495747359464</t>
+          <t>-40.9273456479083,176.18495749716658</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -41197,7 +41197,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>-40.927350755525175,176.18496249442228</t>
+          <t>-40.9273507796177,176.18496251799422</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -41234,7 +41234,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>-40.92744211436587,176.18505187942975</t>
+          <t>-40.92744213845838,176.18505190300178</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -41296,7 +41296,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>-40.92736195855185,176.1849734553868</t>
+          <t>-40.92736198264438,176.18497347895874</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -41370,7 +41370,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>-40.92720993458214,176.18482471659794</t>
+          <t>-40.92720991048958,176.1848246930261</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -41428,7 +41428,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>-40.92725893884625,176.18487266179903</t>
+          <t>-40.9272589147537,176.18487263822715</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -41502,7 +41502,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>-40.92741190235301,176.18502232011951</t>
+          <t>-40.92741192644553,176.18502234369151</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -41539,7 +41539,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>-40.927412311925806,176.18502272084362</t>
+          <t>-40.9274122878333,176.18502269727162</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -41613,7 +41613,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>-40.92759555945454,176.18520201003318</t>
+          <t>-40.927595583547,176.1852020336053</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -41745,7 +41745,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>-40.92743857276673,176.1850484143417</t>
+          <t>-40.92743859685923,176.18504843791374</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -41811,7 +41811,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>-40.927406120148596,176.18501666283836</t>
+          <t>-40.927406144241104,176.1850166864104</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -41840,7 +41840,7 @@
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="inlineStr">
         <is>
-          <t>-40.927402506270674,176.1850131270382</t>
+          <t>-40.927402530363196,176.18501315061016</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -41877,7 +41877,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>-40.927329987760714,176.18494217539694</t>
+          <t>-40.92732996366817,176.18494215182497</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -41906,7 +41906,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>-40.92741132413257,176.18502175439136</t>
+          <t>-40.92741134822509,176.18502177796336</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -41943,7 +41943,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>-40.927384725989484,176.1849957309069</t>
+          <t>-40.92738475008201,176.18499575447888</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -41980,7 +41980,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>-40.92737995566963,176.18499106365377</t>
+          <t>-40.927379979762144,176.18499108722574</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -42017,7 +42017,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>-40.92731056917443,176.1849231764128</t>
+          <t>-40.927310593266974,176.18492319998472</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -42054,7 +42054,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>-40.92738072663043,176.18499181795727</t>
+          <t>-40.927380702537896,176.1849917943853</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -42112,7 +42112,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>-40.92722019801399,176.1848347582123</t>
+          <t>-40.927220173921434,176.18483473464042</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -42149,7 +42149,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>-40.92721007913754,176.18482485802912</t>
+          <t>-40.92721005504496,176.18482483445726</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -42223,7 +42223,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>-40.92728633207534,176.18489946305638</t>
+          <t>-40.92728630798279,176.18489943948447</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -42260,7 +42260,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>-40.92699360722478,176.18461306556048</t>
+          <t>-40.92699358313215,176.18461304198877</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -42355,7 +42355,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>-40.92708482182154,176.18470230815893</t>
+          <t>-40.92708479772894,176.1847022845872</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -42466,7 +42466,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>-40.927159773851486,176.18477564002126</t>
+          <t>-40.927159749758914,176.18477561644943</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -42710,7 +42710,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>-40.927245952959424,176.18485995654947</t>
+          <t>-40.927245977051975,176.18485998012133</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -42871,7 +42871,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>-40.9271857456449,176.18480105045836</t>
+          <t>-40.927185769737484,176.18480107403022</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -42908,7 +42908,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>-40.92721104284009,176.18482580090358</t>
+          <t>-40.92721106693265,176.1848258244754</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -42945,7 +42945,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>-40.92727953797697,176.18489281577675</t>
+          <t>-40.92727951388442,176.18489279220483</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -42982,7 +42982,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>-40.92728418783867,176.18489736515593</t>
+          <t>-40.92728421193121,176.18489738872785</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -43019,7 +43019,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>-40.92719861107637,176.18481363782524</t>
+          <t>-40.92719863516893,176.1848136613971</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -43056,7 +43056,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>-40.92716678479078,176.18478249942297</t>
+          <t>-40.92716676069821,176.18478247585114</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -43122,7 +43122,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>-40.927268985440335,176.18488249128131</t>
+          <t>-40.92726896134779,176.18488246770943</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>-40.92727570726174,176.1848890678431</t>
+          <t>-40.92727568316919,176.1848890442712</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -43196,7 +43196,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>-40.927249711398076,176.18486363376402</t>
+          <t>-40.92724973549063,176.1848636573359</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -43229,7 +43229,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>-40.92741761227955,176.1850279066856</t>
+          <t>-40.92741763637206,176.18502793025763</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -43262,7 +43262,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>-40.92742777932098,176.18503785407577</t>
+          <t>-40.92742775522847,176.18503783050375</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -43299,7 +43299,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>-40.92721239202367,176.18482712092785</t>
+          <t>-40.9272123679311,176.184827097356</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -43398,7 +43398,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>-40.92726356461632,176.18487718760343</t>
+          <t>-40.92726354052376,176.18487716403158</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -43435,7 +43435,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>-40.92716873628927,176.18478440874125</t>
+          <t>-40.92716871219669,176.18478438516942</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -43472,7 +43472,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>-40.92721957160738,176.1848341453437</t>
+          <t>-40.927219595699945,176.1848341689156</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -43567,7 +43567,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>-40.92703133625147,176.18464997887128</t>
+          <t>-40.92703131215885,176.18464995529953</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -43703,7 +43703,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>-40.92711881646472,176.18473556794447</t>
+          <t>-40.9271188405573,176.18473559151627</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -43740,7 +43740,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>-40.92712746570243,176.18474403022003</t>
+          <t>-40.927127441609855,176.18474400664823</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -43777,7 +43777,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>-40.92711286559602,176.18472974571162</t>
+          <t>-40.92711284150343,176.18472972213982</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -43851,7 +43851,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>-40.92719391302574,176.1848090413143</t>
+          <t>-40.9271939371183,176.18480906488617</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -43888,7 +43888,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>-40.92719786420678,176.1848129070978</t>
+          <t>-40.927197840114225,176.18481288352595</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -43925,7 +43925,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>-40.92728047758635,176.1848937350813</t>
+          <t>-40.9272804534938,176.18489371150937</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -44028,7 +44028,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>-40.92734099804933,176.18495294777884</t>
+          <t>-40.92734102214187,176.18495297135078</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -44176,7 +44176,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>-40.92729384894962,176.18490681749506</t>
+          <t>-40.92729382485707,176.18490679392312</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -44205,7 +44205,7 @@
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr">
         <is>
-          <t>-40.927039865033386,176.18465832326544</t>
+          <t>-40.927039840940786,176.18465829969372</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -44263,7 +44263,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>-40.92714765528518,176.18476378339568</t>
+          <t>-40.92714767937776,176.18476380696748</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>-40.92721853562722,176.18483313175338</t>
+          <t>-40.927218511534655,176.18483310818155</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -44337,7 +44337,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>-40.927248169474545,176.1848621251631</t>
+          <t>-40.92724814538199,176.18486210159125</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -44374,7 +44374,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>-40.92716664023534,176.184782357992</t>
+          <t>-40.92716661614278,176.18478233442016</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -44411,7 +44411,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>-40.92722771489301,176.18484211263603</t>
+          <t>-40.92722769080046,176.18484208906418</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -44448,7 +44448,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>-40.927313821667425,176.184926358624</t>
+          <t>-40.927313845759976,176.18492638219593</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -44485,7 +44485,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>-40.92731685732744,176.18492932868807</t>
+          <t>-40.92731688142,176.18492935226</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -44584,7 +44584,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>-40.92734509378004,176.18495695501153</t>
+          <t>-40.927345069687505,176.18495693143956</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -44732,7 +44732,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>-40.92733745644678,176.18494948270154</t>
+          <t>-40.92733748053932,176.1849495062735</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -44843,7 +44843,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>-40.927257372830304,176.18487112962583</t>
+          <t>-40.927257396922855,176.18487115319772</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -44938,7 +44938,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>-40.927326301602534,176.18493856888915</t>
+          <t>-40.92732627751001,176.1849385453172</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -44975,7 +44975,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>-40.927344539651784,176.18495641285648</t>
+          <t>-40.92734456374431,176.18495643642845</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -45012,7 +45012,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>-40.92718001161314,176.18479544036012</t>
+          <t>-40.927179987520574,176.1847954167883</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -45049,7 +45049,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>-40.92718668525512,176.1848019697603</t>
+          <t>-40.92718670934769,176.18480199333212</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -45086,7 +45086,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>-40.927017121613375,176.1846360715525</t>
+          <t>-40.927017145705975,176.1846360951242</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>-40.92713797006816,176.18475430752707</t>
+          <t>-40.927137994160745,176.18475433109887</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -45189,7 +45189,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>-40.927197960577054,176.18481300138524</t>
+          <t>-40.92719798466962,176.1848130249571</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -45226,7 +45226,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>-40.92723431625428,176.1848485713301</t>
+          <t>-40.92723434034683,176.18484859490198</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -45263,7 +45263,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>-40.9271024816907,176.1847195862714</t>
+          <t>-40.927102505783296,176.18471960984317</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -45337,7 +45337,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>-40.9271606411842,176.18477648860699</t>
+          <t>-40.92716061709163,176.18477646503516</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -45374,7 +45374,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>-40.92719268430476,176.18480783915</t>
+          <t>-40.92719270839733,176.18480786272184</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -45448,7 +45448,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>-40.927230268704356,176.18484461125476</t>
+          <t>-40.927230292796914,176.18484463482662</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>-40.92712435775916,176.18474098945782</t>
+          <t>-40.92712433366657,176.18474096588602</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -45633,7 +45633,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>-40.92734352776538,176.18495542283426</t>
+          <t>-40.927343551857916,176.18495544640624</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -45670,7 +45670,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>-40.927270599641204,176.18488407059888</t>
+          <t>-40.92727062373377,176.1848840941708</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -45707,7 +45707,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>-40.927219860718125,176.18483442820613</t>
+          <t>-40.92721988481068,176.184834451778</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -45744,7 +45744,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>-40.92724274864945,176.18485682148864</t>
+          <t>-40.92724272455688,176.18485679791678</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -45781,7 +45781,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>-40.92736889720004,176.18498024411505</t>
+          <t>-40.92736892129256,176.18498026768705</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -45892,7 +45892,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>-40.927256915071794,176.1848706817598</t>
+          <t>-40.92725689097923,176.18487065818792</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -45929,7 +45929,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>-40.927283946913185,176.18489712943676</t>
+          <t>-40.92728392282065,176.18489710586488</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -45962,7 +45962,7 @@
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>-40.927433200136505,176.1850431577803</t>
+          <t>-40.92743317604399,176.1850431342083</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>-40.927470712172244,176.18507985943998</t>
+          <t>-40.927470688079744,176.18507983586795</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -46110,7 +46110,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>-40.92733875744365,176.18495075558704</t>
+          <t>-40.927338781536186,176.18495077915898</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -46221,7 +46221,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>-40.92749227496129,176.18510095643109</t>
+          <t>-40.927492299053775,176.18510098000314</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -46283,7 +46283,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>-40.92724043576397,176.1848545585878</t>
+          <t>-40.92724041167142,176.18485453501592</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -46320,7 +46320,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>-40.92727905612601,176.18489234433852</t>
+          <t>-40.927279080218554,176.18489236791044</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -46357,7 +46357,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-40.927155244447135,176.18477120851853</t>
+          <t>-40.92715526853972,176.18477123209036</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -46390,7 +46390,7 @@
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>-40.92743279056379,176.18504275705595</t>
+          <t>-40.9274328146563,176.18504278062798</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">

--- a/data/nzd0327/nzd0327.xlsx
+++ b/data/nzd0327/nzd0327.xlsx
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0241</v>
+        <v>0.0198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0263</v>
+        <v>0.0208</v>
       </c>
       <c r="I2" t="n">
         <v>-0.537666389975148</v>
@@ -24256,10 +24256,10 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0247</v>
+        <v>0.0237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0309</v>
+        <v>0.0256</v>
       </c>
       <c r="I3" t="n">
         <v>-0.6063593431171427</v>
@@ -24334,10 +24334,10 @@
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0284</v>
+        <v>0.0248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0314</v>
+        <v>0.0307</v>
       </c>
       <c r="I4" t="n">
         <v>-0.6246055771208896</v>
@@ -24412,10 +24412,10 @@
         <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0244</v>
+        <v>0.0248</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0267</v>
+        <v>0.0274</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5168173988438151</v>
@@ -24487,13 +24487,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0199</v>
+        <v>0.0259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0258</v>
+        <v>0.0303</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4288299288780511</v>
